--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -5,35 +5,36 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\200_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DCD8B9-AE8E-45B5-A53C-7CA85A21D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF447C7-538A-4073-B1BF-34709862B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
-    <sheet name="フロー" sheetId="11" r:id="rId2"/>
-    <sheet name="データ" sheetId="10" r:id="rId3"/>
-    <sheet name="メニュー" sheetId="2" r:id="rId4"/>
-    <sheet name="口座マスタ" sheetId="3" r:id="rId5"/>
-    <sheet name="納付書" sheetId="4" r:id="rId6"/>
-    <sheet name="調整入力" sheetId="5" r:id="rId7"/>
-    <sheet name="口座データ" sheetId="6" r:id="rId8"/>
-    <sheet name="入金消込" sheetId="7" r:id="rId9"/>
-    <sheet name="徴収簿" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
+    <sheet name="アプリ構成" sheetId="9" r:id="rId2"/>
+    <sheet name="フロー" sheetId="11" r:id="rId3"/>
+    <sheet name="データ" sheetId="10" r:id="rId4"/>
+    <sheet name="メニュー" sheetId="2" r:id="rId5"/>
+    <sheet name="口座マスタ" sheetId="3" r:id="rId6"/>
+    <sheet name="納付書" sheetId="4" r:id="rId7"/>
+    <sheet name="調整入力" sheetId="5" r:id="rId8"/>
+    <sheet name="口座データ" sheetId="6" r:id="rId9"/>
+    <sheet name="入金消込" sheetId="7" r:id="rId10"/>
+    <sheet name="徴収簿" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="a">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">アプリ構成!$A$1:$BL$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">メニュー!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">口座データ!$A$1:$P$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">口座マスタ!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">調整入力!$A$1:$T$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">入金消込!$A$1:$P$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">納付書!$A$1:$T$51</definedName>
-    <definedName name="範囲１" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリ構成!$A$1:$BL$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">メニュー!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">口座データ!$A$1:$P$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">口座マスタ!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">調整入力!$A$1:$T$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">入金消込!$A$1:$P$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">納付書!$A$1:$T$51</definedName>
+    <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
@@ -1172,6 +1173,15 @@
       <t>フジシロ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務委託名：姫路市中央卸売市場　</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　施設使用料・償還金等料金計算及び納付書作成システム</t>
+  </si>
+  <si>
+    <t>　　　　　　　　　口座振替データ作成機</t>
   </si>
 </sst>
 </file>
@@ -1936,69 +1946,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2026,6 +1973,24 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2034,6 +1999,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12291,13 +12301,1446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F737D31-BB5E-444B-9928-BDA02EED9945}">
+  <dimension ref="B6:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED03A-26E0-4B65-8761-FC4FD6E2F58A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A455C-590E-47DF-B429-E54627F0B707}">
+  <dimension ref="A39:I125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="L132" sqref="L132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="39" spans="2:7" ht="24">
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="41">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="42"/>
+    </row>
+    <row r="40" spans="2:7" ht="18.75">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C42" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C43" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C44" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C45" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C46" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C47" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C48" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C49" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C50" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C51" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C52" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C53" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C54" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C55" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C56" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C57" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C58" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C59" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C60" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="50">
+        <v>21001</v>
+      </c>
+      <c r="C61" s="51">
+        <v>1001</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="52">
+        <v>1518741</v>
+      </c>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="53"/>
+      <c r="C62" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="56">
+        <v>10426021</v>
+      </c>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+    </row>
+    <row r="66" spans="2:9" ht="24">
+      <c r="B66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="58">
+        <v>4.5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="42"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.75">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C69" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="45">
+        <v>597048</v>
+      </c>
+      <c r="F69" s="45">
+        <v>115201</v>
+      </c>
+      <c r="G69" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C70" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F70" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G70" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C71" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F71" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G71" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C72" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F72" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G72" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C73" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F73" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G73" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C74" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F74" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G74" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C75" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F75" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G75" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C76" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F76" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G76" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C77" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F77" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G77" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C78" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F78" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G78" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C79" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F79" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G79" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C80" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F80" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G80" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C81" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F81" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G81" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C82" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F82" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G82" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C83" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F83" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G83" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C84" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F84" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G84" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C85" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F85" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G85" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C86" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F86" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G86" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C87" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F87" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G87" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="51">
+        <v>21001</v>
+      </c>
+      <c r="C88" s="51">
+        <v>1001</v>
+      </c>
+      <c r="D88" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="52">
+        <v>597048</v>
+      </c>
+      <c r="F88" s="52">
+        <v>115201</v>
+      </c>
+      <c r="G88" s="52">
+        <v>1518741</v>
+      </c>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="53"/>
+      <c r="C89" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="60">
+        <v>597048</v>
+      </c>
+      <c r="F89" s="60">
+        <v>115201</v>
+      </c>
+      <c r="G89" s="60">
+        <v>1518741</v>
+      </c>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+    </row>
+    <row r="93" spans="2:9" ht="24">
+      <c r="B93" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="41">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="42"/>
+    </row>
+    <row r="94" spans="2:9" ht="18.75">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C96" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C97" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C98" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C99" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C100" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C101" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C102" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C103" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C104" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C105" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C106" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C107" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C108" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D108" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C109" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C110" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C111" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C112" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="B113" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C113" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="B114" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C114" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="B115" s="51">
+        <v>21001</v>
+      </c>
+      <c r="C115" s="51">
+        <v>1001</v>
+      </c>
+      <c r="D115" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="52">
+        <v>1518741</v>
+      </c>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="B116" s="53"/>
+      <c r="C116" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="61"/>
+      <c r="E116" s="60">
+        <v>1518741</v>
+      </c>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="B117" s="53"/>
+      <c r="C117" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="56">
+        <v>10426021</v>
+      </c>
+      <c r="F117" s="57"/>
+      <c r="G117" s="57"/>
+    </row>
+    <row r="121" spans="1:7" ht="24">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" s="41">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G121" s="42"/>
+    </row>
+    <row r="122" spans="1:7" ht="18.75">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="B123" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F123" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G123" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="B124" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C124" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="B125" s="53"/>
+      <c r="C125" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86245B60-DA56-4A18-961B-4C85B060D63F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AR59" sqref="AR59"/>
     </sheetView>
   </sheetViews>
@@ -13271,1386 +14714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A455C-590E-47DF-B429-E54627F0B707}">
-  <dimension ref="A39:I125"/>
-  <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="39" spans="2:7" ht="24">
-      <c r="B39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="41">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="42"/>
-    </row>
-    <row r="40" spans="2:7" ht="18.75">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C42" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C43" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C44" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C45" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C46" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C47" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C48" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C49" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C50" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C51" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C52" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C53" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C54" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C55" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C56" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C57" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C58" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C59" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C60" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D60" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="50">
-        <v>21001</v>
-      </c>
-      <c r="C61" s="51">
-        <v>1001</v>
-      </c>
-      <c r="D61" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="52">
-        <v>1518741</v>
-      </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="53"/>
-      <c r="C62" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="56">
-        <v>10426021</v>
-      </c>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-    </row>
-    <row r="66" spans="2:9" ht="24">
-      <c r="B66" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="58">
-        <v>4.5</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="42"/>
-    </row>
-    <row r="67" spans="2:9" ht="18.75">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C69" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" s="45">
-        <v>597048</v>
-      </c>
-      <c r="F69" s="45">
-        <v>115201</v>
-      </c>
-      <c r="G69" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C70" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F70" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G70" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C71" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F71" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G71" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C72" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F72" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G72" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C73" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F73" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G73" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C74" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F74" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G74" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C75" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F75" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G75" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C76" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D76" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F76" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G76" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C77" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E77" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F77" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G77" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C78" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D78" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E78" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F78" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G78" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C79" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F79" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G79" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C80" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D80" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F80" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G80" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C81" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D81" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F81" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G81" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C82" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D82" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F82" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G82" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C83" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F83" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G83" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C84" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E84" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F84" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G84" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C85" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D85" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F85" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G85" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C86" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D86" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E86" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F86" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G86" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C87" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D87" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F87" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G87" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="51">
-        <v>21001</v>
-      </c>
-      <c r="C88" s="51">
-        <v>1001</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E88" s="52">
-        <v>597048</v>
-      </c>
-      <c r="F88" s="52">
-        <v>115201</v>
-      </c>
-      <c r="G88" s="52">
-        <v>1518741</v>
-      </c>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="53"/>
-      <c r="C89" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D89" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="60">
-        <v>597048</v>
-      </c>
-      <c r="F89" s="60">
-        <v>115201</v>
-      </c>
-      <c r="G89" s="60">
-        <v>1518741</v>
-      </c>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-    </row>
-    <row r="93" spans="2:9" ht="24">
-      <c r="B93" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="41">
-        <v>7</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="42"/>
-    </row>
-    <row r="94" spans="2:9" ht="18.75">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G95" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C96" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C97" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E97" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C98" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D98" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C99" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D99" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C100" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D100" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C101" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D101" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E101" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C102" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E102" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C103" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E103" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C104" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C105" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E105" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C106" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D106" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E106" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C107" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D107" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E107" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C108" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D108" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E108" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="B109" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C109" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D109" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E109" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C110" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D110" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E110" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C111" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D111" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E111" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C112" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D112" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="B113" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C113" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D113" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="B114" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C114" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D114" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="B115" s="51">
-        <v>21001</v>
-      </c>
-      <c r="C115" s="51">
-        <v>1001</v>
-      </c>
-      <c r="D115" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E115" s="52">
-        <v>1518741</v>
-      </c>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="B116" s="53"/>
-      <c r="C116" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D116" s="61"/>
-      <c r="E116" s="60">
-        <v>1518741</v>
-      </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="B117" s="53"/>
-      <c r="C117" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D117" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="E117" s="56">
-        <v>10426021</v>
-      </c>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-    </row>
-    <row r="121" spans="1:7" ht="24">
-      <c r="A121" t="s">
-        <v>150</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" s="41">
-        <v>7</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" s="42"/>
-    </row>
-    <row r="122" spans="1:7" ht="18.75">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="B123" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="B124" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C124" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D124" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E124" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125" s="53"/>
-      <c r="C125" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D125" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E125" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6CF4B-365B-4D50-AAAC-3AA79B2CDBBA}">
   <dimension ref="A1:BC96"/>
   <sheetViews>
@@ -14664,262 +14728,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="80" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="80" t="s">
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="80" t="s">
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="88"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="100"/>
     </row>
     <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="83" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="77" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="77" t="s">
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="88"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="99"/>
+      <c r="BA2" s="99"/>
+      <c r="BB2" s="99"/>
+      <c r="BC2" s="100"/>
     </row>
     <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:55" ht="13.5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="89" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="89" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="91"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="87"/>
     </row>
     <row r="5" spans="1:55" ht="13.5">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="93"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="93"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="93"/>
-      <c r="BC5" s="94"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="86"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="88"/>
     </row>
     <row r="6" spans="1:55" ht="13.5">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -14974,9 +15038,9 @@
       <c r="BC6" s="31"/>
     </row>
     <row r="7" spans="1:55" ht="13.5">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="AD7" s="32"/>
@@ -14984,9 +15048,9 @@
       <c r="BC7" s="33"/>
     </row>
     <row r="8" spans="1:55" ht="13.5">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="AD8" s="32"/>
@@ -14994,9 +15058,9 @@
       <c r="BC8" s="33"/>
     </row>
     <row r="9" spans="1:55" ht="13.5">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="AD9" s="32"/>
@@ -15004,9 +15068,9 @@
       <c r="BC9" s="33"/>
     </row>
     <row r="10" spans="1:55" ht="13.5">
-      <c r="A10" s="95"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="AD10" s="32"/>
@@ -15014,9 +15078,9 @@
       <c r="BC10" s="33"/>
     </row>
     <row r="11" spans="1:55" ht="13.5">
-      <c r="A11" s="95"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="AD11" s="32"/>
@@ -15024,9 +15088,9 @@
       <c r="BC11" s="33"/>
     </row>
     <row r="12" spans="1:55" ht="13.5">
-      <c r="A12" s="95"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="AD12" s="32"/>
@@ -15034,9 +15098,9 @@
       <c r="BC12" s="33"/>
     </row>
     <row r="13" spans="1:55" ht="13.5">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="AD13" s="32"/>
@@ -15044,9 +15108,9 @@
       <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:55" ht="13.5">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="AD14" s="32"/>
@@ -15054,9 +15118,9 @@
       <c r="BC14" s="33"/>
     </row>
     <row r="15" spans="1:55" ht="13.5">
-      <c r="A15" s="95"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="AD15" s="32"/>
@@ -15064,9 +15128,9 @@
       <c r="BC15" s="33"/>
     </row>
     <row r="16" spans="1:55" ht="13.5">
-      <c r="A16" s="95"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="AD16" s="32"/>
@@ -15074,9 +15138,9 @@
       <c r="BC16" s="33"/>
     </row>
     <row r="17" spans="1:55" ht="13.5">
-      <c r="A17" s="95"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="AD17" s="32"/>
@@ -15084,9 +15148,9 @@
       <c r="BC17" s="33"/>
     </row>
     <row r="18" spans="1:55" ht="13.5">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="AD18" s="32"/>
@@ -15094,9 +15158,9 @@
       <c r="BC18" s="33"/>
     </row>
     <row r="19" spans="1:55" ht="13.5">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="AD19" s="32"/>
@@ -15104,9 +15168,9 @@
       <c r="BC19" s="33"/>
     </row>
     <row r="20" spans="1:55" ht="13.5">
-      <c r="A20" s="95"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="AD20" s="32"/>
@@ -15114,9 +15178,9 @@
       <c r="BC20" s="33"/>
     </row>
     <row r="21" spans="1:55" ht="13.5">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="AD21" s="32"/>
@@ -15124,9 +15188,9 @@
       <c r="BC21" s="33"/>
     </row>
     <row r="22" spans="1:55" ht="13.5">
-      <c r="A22" s="95"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="AD22" s="32"/>
@@ -15134,9 +15198,9 @@
       <c r="BC22" s="33"/>
     </row>
     <row r="23" spans="1:55" ht="13.5">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="AD23" s="32"/>
@@ -15144,9 +15208,9 @@
       <c r="BC23" s="33"/>
     </row>
     <row r="24" spans="1:55" ht="13.5">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="AD24" s="32"/>
@@ -15154,9 +15218,9 @@
       <c r="BC24" s="33"/>
     </row>
     <row r="25" spans="1:55" ht="13.5">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="AD25" s="32"/>
@@ -15164,9 +15228,9 @@
       <c r="BC25" s="33"/>
     </row>
     <row r="26" spans="1:55" ht="13.5">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="AD26" s="32"/>
@@ -15174,9 +15238,9 @@
       <c r="BC26" s="33"/>
     </row>
     <row r="27" spans="1:55" ht="13.5">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="AD27" s="32"/>
@@ -15184,9 +15248,9 @@
       <c r="BC27" s="33"/>
     </row>
     <row r="28" spans="1:55" ht="13.5">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="AD28" s="32"/>
@@ -15194,9 +15258,9 @@
       <c r="BC28" s="33"/>
     </row>
     <row r="29" spans="1:55" ht="13.5">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="AD29" s="32"/>
@@ -15204,9 +15268,9 @@
       <c r="BC29" s="33"/>
     </row>
     <row r="30" spans="1:55" ht="13.5">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="AD30" s="32"/>
@@ -15214,9 +15278,9 @@
       <c r="BC30" s="33"/>
     </row>
     <row r="31" spans="1:55" ht="13.5">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="AD31" s="32"/>
@@ -15224,9 +15288,9 @@
       <c r="BC31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="13.5">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="AD32" s="32"/>
@@ -15234,9 +15298,9 @@
       <c r="BC32" s="33"/>
     </row>
     <row r="33" spans="1:55" ht="13.5">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="AD33" s="32"/>
@@ -15244,9 +15308,9 @@
       <c r="BC33" s="33"/>
     </row>
     <row r="34" spans="1:55" ht="13.5">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="AD34" s="32"/>
@@ -15254,9 +15318,9 @@
       <c r="BC34" s="33"/>
     </row>
     <row r="35" spans="1:55" ht="13.5">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="AD35" s="32"/>
@@ -15264,9 +15328,9 @@
       <c r="BC35" s="33"/>
     </row>
     <row r="36" spans="1:55" ht="13.5">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="AD36" s="32"/>
@@ -15274,9 +15338,9 @@
       <c r="BC36" s="33"/>
     </row>
     <row r="37" spans="1:55" ht="13.5">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="AD37" s="32"/>
@@ -15284,9 +15348,9 @@
       <c r="BC37" s="33"/>
     </row>
     <row r="38" spans="1:55" ht="13.5">
-      <c r="A38" s="98"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="AD38" s="32"/>
@@ -15294,9 +15358,9 @@
       <c r="BC38" s="33"/>
     </row>
     <row r="39" spans="1:55" ht="13.5">
-      <c r="A39" s="98"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="AD39" s="32"/>
@@ -15304,9 +15368,9 @@
       <c r="BC39" s="33"/>
     </row>
     <row r="40" spans="1:55" ht="13.5">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -15423,138 +15487,138 @@
       <c r="C42" s="38"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="80" t="s">
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="80" t="s">
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="82"/>
-      <c r="AF45" s="80" t="s">
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="96"/>
+      <c r="W45" s="96"/>
+      <c r="X45" s="96"/>
+      <c r="Y45" s="96"/>
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="96"/>
+      <c r="AB45" s="96"/>
+      <c r="AC45" s="96"/>
+      <c r="AD45" s="96"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="82"/>
-      <c r="AJ45" s="83" t="s">
+      <c r="AG45" s="96"/>
+      <c r="AH45" s="96"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="AK45" s="84"/>
-      <c r="AL45" s="84"/>
-      <c r="AM45" s="84"/>
-      <c r="AN45" s="84"/>
-      <c r="AO45" s="84"/>
-      <c r="AP45" s="84"/>
-      <c r="AQ45" s="85"/>
-      <c r="AR45" s="80" t="s">
+      <c r="AK45" s="93"/>
+      <c r="AL45" s="93"/>
+      <c r="AM45" s="93"/>
+      <c r="AN45" s="93"/>
+      <c r="AO45" s="93"/>
+      <c r="AP45" s="93"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="AS45" s="81"/>
-      <c r="AT45" s="81"/>
-      <c r="AU45" s="82"/>
-      <c r="AV45" s="86">
+      <c r="AS45" s="96"/>
+      <c r="AT45" s="96"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="98">
         <v>45814</v>
       </c>
-      <c r="AW45" s="87"/>
-      <c r="AX45" s="87"/>
-      <c r="AY45" s="87"/>
-      <c r="AZ45" s="87"/>
-      <c r="BA45" s="87"/>
-      <c r="BB45" s="87"/>
-      <c r="BC45" s="88"/>
+      <c r="AW45" s="99"/>
+      <c r="AX45" s="99"/>
+      <c r="AY45" s="99"/>
+      <c r="AZ45" s="99"/>
+      <c r="BA45" s="99"/>
+      <c r="BB45" s="99"/>
+      <c r="BC45" s="100"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="83" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="84"/>
-      <c r="AC46" s="84"/>
-      <c r="AD46" s="84"/>
-      <c r="AE46" s="85"/>
-      <c r="AF46" s="77" t="s">
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="93"/>
+      <c r="S46" s="93"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="93"/>
+      <c r="V46" s="93"/>
+      <c r="W46" s="93"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="93"/>
+      <c r="AA46" s="93"/>
+      <c r="AB46" s="93"/>
+      <c r="AC46" s="93"/>
+      <c r="AD46" s="93"/>
+      <c r="AE46" s="94"/>
+      <c r="AF46" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="AG46" s="78"/>
-      <c r="AH46" s="78"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="83"/>
-      <c r="AK46" s="84"/>
-      <c r="AL46" s="84"/>
-      <c r="AM46" s="84"/>
-      <c r="AN46" s="84"/>
-      <c r="AO46" s="84"/>
-      <c r="AP46" s="84"/>
-      <c r="AQ46" s="85"/>
-      <c r="AR46" s="77" t="s">
+      <c r="AG46" s="102"/>
+      <c r="AH46" s="102"/>
+      <c r="AI46" s="103"/>
+      <c r="AJ46" s="92"/>
+      <c r="AK46" s="93"/>
+      <c r="AL46" s="93"/>
+      <c r="AM46" s="93"/>
+      <c r="AN46" s="93"/>
+      <c r="AO46" s="93"/>
+      <c r="AP46" s="93"/>
+      <c r="AQ46" s="94"/>
+      <c r="AR46" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="AS46" s="78"/>
-      <c r="AT46" s="78"/>
-      <c r="AU46" s="79"/>
-      <c r="AV46" s="86"/>
-      <c r="AW46" s="87"/>
-      <c r="AX46" s="87"/>
-      <c r="AY46" s="87"/>
-      <c r="AZ46" s="87"/>
-      <c r="BA46" s="87"/>
-      <c r="BB46" s="87"/>
-      <c r="BC46" s="88"/>
+      <c r="AS46" s="102"/>
+      <c r="AT46" s="102"/>
+      <c r="AU46" s="103"/>
+      <c r="AV46" s="98"/>
+      <c r="AW46" s="99"/>
+      <c r="AX46" s="99"/>
+      <c r="AY46" s="99"/>
+      <c r="AZ46" s="99"/>
+      <c r="BA46" s="99"/>
+      <c r="BB46" s="99"/>
+      <c r="BC46" s="100"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
       <c r="A47" s="27"/>
@@ -15614,129 +15678,129 @@
       <c r="BC47" s="28"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="89" t="s">
+      <c r="B48" s="84"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="89" t="s">
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
-      <c r="V48" s="90"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="90"/>
-      <c r="AA48" s="90"/>
-      <c r="AB48" s="90"/>
-      <c r="AC48" s="90"/>
-      <c r="AD48" s="89"/>
-      <c r="AE48" s="90"/>
-      <c r="AF48" s="90"/>
-      <c r="AG48" s="90"/>
-      <c r="AH48" s="90"/>
-      <c r="AI48" s="90"/>
-      <c r="AJ48" s="90"/>
-      <c r="AK48" s="90"/>
-      <c r="AL48" s="90"/>
-      <c r="AM48" s="90"/>
-      <c r="AN48" s="90"/>
-      <c r="AO48" s="90"/>
-      <c r="AP48" s="91"/>
-      <c r="AQ48" s="90"/>
-      <c r="AR48" s="90"/>
-      <c r="AS48" s="90"/>
-      <c r="AT48" s="90"/>
-      <c r="AU48" s="90"/>
-      <c r="AV48" s="90"/>
-      <c r="AW48" s="90"/>
-      <c r="AX48" s="90"/>
-      <c r="AY48" s="90"/>
-      <c r="AZ48" s="90"/>
-      <c r="BA48" s="90"/>
-      <c r="BB48" s="90"/>
-      <c r="BC48" s="91"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="84"/>
+      <c r="U48" s="84"/>
+      <c r="V48" s="84"/>
+      <c r="W48" s="84"/>
+      <c r="X48" s="84"/>
+      <c r="Y48" s="84"/>
+      <c r="Z48" s="84"/>
+      <c r="AA48" s="84"/>
+      <c r="AB48" s="84"/>
+      <c r="AC48" s="84"/>
+      <c r="AD48" s="83"/>
+      <c r="AE48" s="84"/>
+      <c r="AF48" s="84"/>
+      <c r="AG48" s="84"/>
+      <c r="AH48" s="84"/>
+      <c r="AI48" s="84"/>
+      <c r="AJ48" s="84"/>
+      <c r="AK48" s="84"/>
+      <c r="AL48" s="84"/>
+      <c r="AM48" s="84"/>
+      <c r="AN48" s="84"/>
+      <c r="AO48" s="84"/>
+      <c r="AP48" s="87"/>
+      <c r="AQ48" s="84"/>
+      <c r="AR48" s="84"/>
+      <c r="AS48" s="84"/>
+      <c r="AT48" s="84"/>
+      <c r="AU48" s="84"/>
+      <c r="AV48" s="84"/>
+      <c r="AW48" s="84"/>
+      <c r="AX48" s="84"/>
+      <c r="AY48" s="84"/>
+      <c r="AZ48" s="84"/>
+      <c r="BA48" s="84"/>
+      <c r="BB48" s="84"/>
+      <c r="BC48" s="87"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="93"/>
-      <c r="T49" s="93"/>
-      <c r="U49" s="93"/>
-      <c r="V49" s="93"/>
-      <c r="W49" s="93"/>
-      <c r="X49" s="93"/>
-      <c r="Y49" s="93"/>
-      <c r="Z49" s="93"/>
-      <c r="AA49" s="93"/>
-      <c r="AB49" s="93"/>
-      <c r="AC49" s="93"/>
-      <c r="AD49" s="92"/>
-      <c r="AE49" s="93"/>
-      <c r="AF49" s="93"/>
-      <c r="AG49" s="93"/>
-      <c r="AH49" s="93"/>
-      <c r="AI49" s="93"/>
-      <c r="AJ49" s="93"/>
-      <c r="AK49" s="93"/>
-      <c r="AL49" s="93"/>
-      <c r="AM49" s="93"/>
-      <c r="AN49" s="93"/>
-      <c r="AO49" s="93"/>
-      <c r="AP49" s="94"/>
-      <c r="AQ49" s="93"/>
-      <c r="AR49" s="93"/>
-      <c r="AS49" s="93"/>
-      <c r="AT49" s="93"/>
-      <c r="AU49" s="93"/>
-      <c r="AV49" s="93"/>
-      <c r="AW49" s="93"/>
-      <c r="AX49" s="93"/>
-      <c r="AY49" s="93"/>
-      <c r="AZ49" s="93"/>
-      <c r="BA49" s="93"/>
-      <c r="BB49" s="93"/>
-      <c r="BC49" s="94"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="86"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="86"/>
+      <c r="T49" s="86"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="86"/>
+      <c r="W49" s="86"/>
+      <c r="X49" s="86"/>
+      <c r="Y49" s="86"/>
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="86"/>
+      <c r="AB49" s="86"/>
+      <c r="AC49" s="86"/>
+      <c r="AD49" s="85"/>
+      <c r="AE49" s="86"/>
+      <c r="AF49" s="86"/>
+      <c r="AG49" s="86"/>
+      <c r="AH49" s="86"/>
+      <c r="AI49" s="86"/>
+      <c r="AJ49" s="86"/>
+      <c r="AK49" s="86"/>
+      <c r="AL49" s="86"/>
+      <c r="AM49" s="86"/>
+      <c r="AN49" s="86"/>
+      <c r="AO49" s="86"/>
+      <c r="AP49" s="88"/>
+      <c r="AQ49" s="86"/>
+      <c r="AR49" s="86"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="86"/>
+      <c r="AX49" s="86"/>
+      <c r="AY49" s="86"/>
+      <c r="AZ49" s="86"/>
+      <c r="BA49" s="86"/>
+      <c r="BB49" s="86"/>
+      <c r="BC49" s="88"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="104"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="106"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -15791,9 +15855,9 @@
       <c r="BC50" s="31"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="95"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="97"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="AD51" s="32"/>
@@ -15801,9 +15865,9 @@
       <c r="BC51" s="33"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="AD52" s="32"/>
@@ -15811,9 +15875,9 @@
       <c r="BC52" s="33"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="AD53" s="32"/>
@@ -15821,9 +15885,9 @@
       <c r="BC53" s="33"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="95"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="AD54" s="32"/>
@@ -15831,9 +15895,9 @@
       <c r="BC54" s="33"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="95"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="AD55" s="32"/>
@@ -15841,9 +15905,9 @@
       <c r="BC55" s="33"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="95"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="97"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="AD56" s="32"/>
@@ -15851,9 +15915,9 @@
       <c r="BC56" s="33"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="95"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="97"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="AD57" s="32"/>
@@ -15861,9 +15925,9 @@
       <c r="BC57" s="33"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="95"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="97"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="AD58" s="32"/>
@@ -15871,9 +15935,9 @@
       <c r="BC58" s="33"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="95"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="97"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="AD59" s="32"/>
@@ -15881,9 +15945,9 @@
       <c r="BC59" s="33"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="95"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="AD60" s="32"/>
@@ -15891,9 +15955,9 @@
       <c r="BC60" s="33"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="95"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="97"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="AD61" s="32"/>
@@ -15901,9 +15965,9 @@
       <c r="BC61" s="33"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="95"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="97"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="AD62" s="32"/>
@@ -15911,46 +15975,46 @@
       <c r="BC62" s="33"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="95"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="89" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="84"/>
       <c r="Q63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="BC63" s="33"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="95"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
+      <c r="L64" s="86"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="86"/>
+      <c r="O64" s="86"/>
+      <c r="P64" s="86"/>
       <c r="Q64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AP64" s="33"/>
@@ -15963,9 +16027,9 @@
       <c r="BC64" s="33"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="95"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="97"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="AD65" s="32"/>
@@ -15979,9 +16043,9 @@
       <c r="BC65" s="33"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="95"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="97"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="AD66" s="32"/>
@@ -15989,9 +16053,9 @@
       <c r="BC66" s="33"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="95"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="97"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="AD67" s="32"/>
@@ -15999,9 +16063,9 @@
       <c r="BC67" s="33"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="95"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="97"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="AD68" s="32"/>
@@ -16009,9 +16073,9 @@
       <c r="BC68" s="33"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="95"/>
-      <c r="B69" s="96"/>
-      <c r="C69" s="97"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="32"/>
       <c r="Q69" s="32"/>
       <c r="AD69" s="32"/>
@@ -16019,9 +16083,9 @@
       <c r="BC69" s="33"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="95"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="97"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="AD70" s="32"/>
@@ -16029,9 +16093,9 @@
       <c r="BC70" s="33"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="95"/>
-      <c r="B71" s="96"/>
-      <c r="C71" s="97"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="32"/>
       <c r="Q71" s="32"/>
       <c r="AD71" s="32"/>
@@ -16045,9 +16109,9 @@
       <c r="BC71" s="33"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="95"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="97"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="32"/>
       <c r="Q72" s="32"/>
       <c r="AD72" s="32"/>
@@ -16055,9 +16119,9 @@
       <c r="BC72" s="33"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="98"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="AD73" s="32"/>
@@ -16065,9 +16129,9 @@
       <c r="BC73" s="33"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="98"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="100"/>
+      <c r="A74" s="77"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="79"/>
       <c r="D74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="AD74" s="32"/>
@@ -16075,9 +16139,9 @@
       <c r="BC74" s="33"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="98"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="100"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="79"/>
       <c r="D75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="AD75" s="32"/>
@@ -16085,9 +16149,9 @@
       <c r="BC75" s="33"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="98"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="100"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="AD76" s="32"/>
@@ -16095,9 +16159,9 @@
       <c r="BC76" s="33"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="98"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="100"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="AD77" s="32"/>
@@ -16105,9 +16169,9 @@
       <c r="BC77" s="33"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="98"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="100"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="AD78" s="32"/>
@@ -16115,9 +16179,9 @@
       <c r="BC78" s="33"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="98"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="100"/>
+      <c r="A79" s="77"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="AD79" s="32"/>
@@ -16125,9 +16189,9 @@
       <c r="BC79" s="33"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="98"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="100"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="AD80" s="32"/>
@@ -16135,9 +16199,9 @@
       <c r="BC80" s="33"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="98"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="100"/>
+      <c r="A81" s="77"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="AD81" s="32"/>
@@ -16151,9 +16215,9 @@
       <c r="BC81" s="33"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="98"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="100"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="AD82" s="32"/>
@@ -16161,9 +16225,9 @@
       <c r="BC82" s="33"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="98"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="100"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="32"/>
       <c r="Q83" s="32"/>
       <c r="AD83" s="32"/>
@@ -16171,9 +16235,9 @@
       <c r="BC83" s="33"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="98"/>
-      <c r="B84" s="99"/>
-      <c r="C84" s="100"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="32"/>
       <c r="Q84" s="32"/>
       <c r="AD84" s="32"/>
@@ -16181,9 +16245,9 @@
       <c r="BC84" s="33"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="98"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="100"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="32"/>
       <c r="Q85" s="32"/>
       <c r="AD85" s="32"/>
@@ -16191,9 +16255,9 @@
       <c r="BC85" s="33"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="98"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="100"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="32"/>
       <c r="Q86" s="32"/>
       <c r="AD86" s="32"/>
@@ -16201,9 +16265,9 @@
       <c r="BC86" s="33"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="98"/>
-      <c r="B87" s="99"/>
-      <c r="C87" s="100"/>
+      <c r="A87" s="77"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="AD87" s="32"/>
@@ -16211,9 +16275,9 @@
       <c r="BC87" s="33"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="98"/>
-      <c r="B88" s="99"/>
-      <c r="C88" s="100"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="32"/>
       <c r="Q88" s="32"/>
       <c r="AD88" s="32"/>
@@ -16221,9 +16285,9 @@
       <c r="BC88" s="33"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="98"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="100"/>
+      <c r="A89" s="77"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="32"/>
       <c r="Q89" s="32"/>
       <c r="AD89" s="32"/>
@@ -16231,9 +16295,9 @@
       <c r="BC89" s="33"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="98"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="100"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="32"/>
       <c r="Q90" s="32"/>
       <c r="AD90" s="32"/>
@@ -16241,9 +16305,9 @@
       <c r="BC90" s="33"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="98"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="100"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="AD91" s="32"/>
@@ -16257,9 +16321,9 @@
       <c r="BC91" s="33"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="98"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="100"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="32"/>
       <c r="Q92" s="32"/>
       <c r="AD92" s="32"/>
@@ -16273,9 +16337,9 @@
       <c r="BC92" s="33"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A93" s="98"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="100"/>
+      <c r="A93" s="77"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="32"/>
       <c r="Q93" s="32"/>
       <c r="AD93" s="32"/>
@@ -16289,9 +16353,9 @@
       <c r="BC93" s="33"/>
     </row>
     <row r="94" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A94" s="98"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="100"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="32"/>
       <c r="Q94" s="32"/>
       <c r="AD94" s="32"/>
@@ -16305,9 +16369,9 @@
       <c r="BC94" s="33"/>
     </row>
     <row r="95" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A95" s="98"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="100"/>
+      <c r="A95" s="77"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="AD95" s="32"/>
@@ -16315,9 +16379,9 @@
       <c r="BC95" s="33"/>
     </row>
     <row r="96" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A96" s="101"/>
-      <c r="B96" s="102"/>
-      <c r="C96" s="103"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="82"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -16373,12 +16437,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A57:C72"/>
-    <mergeCell ref="A73:C96"/>
-    <mergeCell ref="D63:P64"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="D48:P49"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="AQ48:BC49"/>
+    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:BC2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="A13:C28"/>
+    <mergeCell ref="A29:C40"/>
+    <mergeCell ref="A6:C12"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="O45:AE45"/>
+    <mergeCell ref="Q48:AC49"/>
+    <mergeCell ref="AD48:AP49"/>
     <mergeCell ref="AJ45:AQ45"/>
     <mergeCell ref="AR45:AU45"/>
     <mergeCell ref="AV45:BC45"/>
@@ -16389,33 +16474,12 @@
     <mergeCell ref="AR46:AU46"/>
     <mergeCell ref="AV46:BC46"/>
     <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="O45:AE45"/>
-    <mergeCell ref="Q48:AC49"/>
-    <mergeCell ref="AD48:AP49"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="A13:C28"/>
-    <mergeCell ref="A29:C40"/>
-    <mergeCell ref="A6:C12"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="AQ48:BC49"/>
-    <mergeCell ref="AV1:BC1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:BC2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A57:C72"/>
+    <mergeCell ref="A73:C96"/>
+    <mergeCell ref="D63:P64"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:P49"/>
+    <mergeCell ref="A50:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16423,7 +16487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A787FDD9-CEBD-4A9C-80FE-0E245A10CDA7}">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -16583,7 +16647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97420AAF-D3E0-435B-8240-AAA34C2F822D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16606,7 +16670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9252281D-548E-4462-B5BF-37DF1747F4C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16655,7 +16719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED2544B-8D98-45F6-AB64-2F366EC5A64E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16678,7 +16742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B5982-8541-44DB-B3BD-1B096671C8F5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16704,7 +16768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA48FBA2-72B7-4C12-94E8-D245E2213145}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16729,27 +16793,4 @@
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED03A-26E0-4B65-8761-FC4FD6E2F58A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -1,40 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF447C7-538A-4073-B1BF-34709862B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1733EC-EB4B-47B8-A25B-C5ED959D3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
-    <sheet name="アプリ構成" sheetId="9" r:id="rId2"/>
-    <sheet name="フロー" sheetId="11" r:id="rId3"/>
-    <sheet name="データ" sheetId="10" r:id="rId4"/>
-    <sheet name="メニュー" sheetId="2" r:id="rId5"/>
-    <sheet name="口座マスタ" sheetId="3" r:id="rId6"/>
-    <sheet name="納付書" sheetId="4" r:id="rId7"/>
-    <sheet name="調整入力" sheetId="5" r:id="rId8"/>
-    <sheet name="口座データ" sheetId="6" r:id="rId9"/>
-    <sheet name="入金消込" sheetId="7" r:id="rId10"/>
-    <sheet name="徴収簿" sheetId="13" r:id="rId11"/>
+    <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
+    <sheet name="フロー" sheetId="11" r:id="rId2"/>
+    <sheet name="データ" sheetId="10" r:id="rId3"/>
+    <sheet name="メニュー" sheetId="2" r:id="rId4"/>
+    <sheet name="口座マスタ" sheetId="3" r:id="rId5"/>
+    <sheet name="納付書" sheetId="4" r:id="rId6"/>
+    <sheet name="調整入力" sheetId="5" r:id="rId7"/>
+    <sheet name="口座データ" sheetId="6" r:id="rId8"/>
+    <sheet name="入金消込" sheetId="7" r:id="rId9"/>
+    <sheet name="徴収簿" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="a">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリ構成!$A$1:$BL$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">メニュー!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">口座データ!$A$1:$P$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">口座マスタ!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">調整入力!$A$1:$T$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">入金消込!$A$1:$P$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">納付書!$A$1:$T$51</definedName>
-    <definedName name="範囲１" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">アプリ構成!$A$1:$BL$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">メニュー!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">口座データ!$A$1:$P$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">口座マスタ!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">調整入力!$A$1:$T$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">入金消込!$A$1:$P$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">納付書!$A$1:$T$51</definedName>
+    <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="158">
   <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
@@ -116,9 +115,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>施設使用料・償還金等料金及び納付書作成システム</t>
   </si>
   <si>
     <t>作成者</t>
@@ -202,9 +198,6 @@
       <t>ノウフショ</t>
     </rPh>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>納付書施設</t>
   </si>
   <si>
     <t>調定明細施設</t>
@@ -229,9 +222,6 @@
   </si>
   <si>
     <t>徴収簿水道</t>
-  </si>
-  <si>
-    <t>徴収簿電気</t>
   </si>
   <si>
     <t>徴収簿</t>
@@ -1175,13 +1165,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務委託名：姫路市中央卸売市場　</t>
+    <t>納付書施設</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　　　　　　　施設使用料・償還金等料金計算及び納付書作成システム</t>
+    <t>納付書売上高</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　　　　　　　口座振替データ作成機</t>
+    <t>徴収簿電気</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>徴収簿売上高</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1723,7 +1725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1946,6 +1948,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1973,24 +2038,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2000,49 +2047,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3819,7 +3830,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8879205" y="794385"/>
+          <a:off x="8879205" y="937260"/>
           <a:ext cx="3015853" cy="3571875"/>
           <a:chOff x="8963025" y="809625"/>
           <a:chExt cx="3038713" cy="3571875"/>
@@ -4999,15 +5010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5022,205 +5033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="7029450"/>
-          <a:ext cx="1209675" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -152329"/>
-            <a:gd name="adj2" fmla="val 379"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>振替日を入れる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375F2620-4F11-47DD-B98C-A5B542C68402}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7724775" y="11849100"/>
-          <a:ext cx="1209675" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -152329"/>
-            <a:gd name="adj2" fmla="val 379"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>振替日を入れる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81D99CB-88BA-4BE3-8AC7-D77BC290B298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="16611600"/>
-          <a:ext cx="1209675" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -152329"/>
-            <a:gd name="adj2" fmla="val 379"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>振替日を入れる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062637B-58E8-46E2-89CE-DF079E47AD85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6581775" y="21669375"/>
+          <a:off x="6629400" y="6981825"/>
           <a:ext cx="1209675" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -12301,1447 +12114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F737D31-BB5E-444B-9928-BDA02EED9945}">
-  <dimension ref="B6:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED03A-26E0-4B65-8761-FC4FD6E2F58A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A455C-590E-47DF-B429-E54627F0B707}">
-  <dimension ref="A39:I125"/>
-  <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="39" spans="2:7" ht="24">
-      <c r="B39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="41">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="42"/>
-    </row>
-    <row r="40" spans="2:7" ht="18.75">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C42" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C43" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C44" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C45" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C46" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C47" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C48" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C49" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C50" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C51" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C52" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C53" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C54" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C55" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C56" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C57" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C58" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C59" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C60" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D60" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="50">
-        <v>21001</v>
-      </c>
-      <c r="C61" s="51">
-        <v>1001</v>
-      </c>
-      <c r="D61" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="52">
-        <v>1518741</v>
-      </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="53"/>
-      <c r="C62" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="56">
-        <v>10426021</v>
-      </c>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-    </row>
-    <row r="66" spans="2:9" ht="24">
-      <c r="B66" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="58">
-        <v>4.5</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="42"/>
-    </row>
-    <row r="67" spans="2:9" ht="18.75">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C69" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" s="45">
-        <v>597048</v>
-      </c>
-      <c r="F69" s="45">
-        <v>115201</v>
-      </c>
-      <c r="G69" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C70" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F70" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G70" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C71" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E71" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F71" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G71" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C72" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F72" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G72" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C73" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F73" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G73" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C74" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F74" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G74" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C75" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F75" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G75" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C76" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D76" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F76" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G76" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C77" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E77" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F77" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G77" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C78" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D78" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E78" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F78" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G78" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C79" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F79" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G79" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C80" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D80" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F80" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G80" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C81" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D81" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F81" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G81" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C82" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D82" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F82" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G82" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C83" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F83" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G83" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C84" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E84" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F84" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G84" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C85" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D85" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F85" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G85" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C86" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D86" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E86" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F86" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G86" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C87" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D87" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="48">
-        <v>597048</v>
-      </c>
-      <c r="F87" s="48">
-        <v>115201</v>
-      </c>
-      <c r="G87" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="51">
-        <v>21001</v>
-      </c>
-      <c r="C88" s="51">
-        <v>1001</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E88" s="52">
-        <v>597048</v>
-      </c>
-      <c r="F88" s="52">
-        <v>115201</v>
-      </c>
-      <c r="G88" s="52">
-        <v>1518741</v>
-      </c>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="53"/>
-      <c r="C89" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D89" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="60">
-        <v>597048</v>
-      </c>
-      <c r="F89" s="60">
-        <v>115201</v>
-      </c>
-      <c r="G89" s="60">
-        <v>1518741</v>
-      </c>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-    </row>
-    <row r="93" spans="2:9" ht="24">
-      <c r="B93" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="41">
-        <v>7</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="42"/>
-    </row>
-    <row r="94" spans="2:9" ht="18.75">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G95" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C96" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E96" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C97" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E97" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C98" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D98" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C99" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D99" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C100" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D100" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C101" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D101" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E101" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C102" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E102" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C103" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E103" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C104" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C105" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E105" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C106" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D106" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E106" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C107" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D107" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E107" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C108" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D108" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E108" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="B109" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C109" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D109" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E109" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C110" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D110" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E110" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C111" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D111" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E111" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C112" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D112" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="B113" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C113" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D113" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="B114" s="47">
-        <v>21001</v>
-      </c>
-      <c r="C114" s="47">
-        <v>1001</v>
-      </c>
-      <c r="D114" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" s="48">
-        <v>1518741</v>
-      </c>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="B115" s="51">
-        <v>21001</v>
-      </c>
-      <c r="C115" s="51">
-        <v>1001</v>
-      </c>
-      <c r="D115" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E115" s="52">
-        <v>1518741</v>
-      </c>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="B116" s="53"/>
-      <c r="C116" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D116" s="61"/>
-      <c r="E116" s="60">
-        <v>1518741</v>
-      </c>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="B117" s="53"/>
-      <c r="C117" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D117" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="E117" s="56">
-        <v>10426021</v>
-      </c>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-    </row>
-    <row r="121" spans="1:7" ht="24">
-      <c r="A121" t="s">
-        <v>150</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" s="41">
-        <v>7</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" s="42"/>
-    </row>
-    <row r="122" spans="1:7" ht="18.75">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="B123" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="B124" s="44">
-        <v>21001</v>
-      </c>
-      <c r="C124" s="44">
-        <v>1001</v>
-      </c>
-      <c r="D124" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E124" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125" s="53"/>
-      <c r="C125" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D125" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E125" s="45">
-        <v>1518741</v>
-      </c>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86245B60-DA56-4A18-961B-4C85B060D63F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR59" sqref="AR59"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -13753,7 +12133,7 @@
     <col min="14" max="16384" width="2.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="18.75" customHeight="1">
+    <row r="1" spans="1:64" ht="30" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>5</v>
       </c>
@@ -13778,32 +12158,32 @@
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
       <c r="T1" s="67"/>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="71" t="s">
         <v>7</v>
-      </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="71" t="s">
-        <v>8</v>
       </c>
       <c r="AK1" s="71"/>
       <c r="AL1" s="71"/>
       <c r="AM1" s="71"/>
       <c r="AN1" s="71"/>
       <c r="AO1" s="66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP1" s="66"/>
       <c r="AQ1" s="66"/>
@@ -13812,7 +12192,7 @@
       <c r="AT1" s="66"/>
       <c r="AU1" s="66"/>
       <c r="AV1" s="71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW1" s="71"/>
       <c r="AX1" s="71"/>
@@ -13844,7 +12224,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
@@ -13855,7 +12235,7 @@
       <c r="S2" s="67"/>
       <c r="T2" s="67"/>
       <c r="U2" s="68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" s="69"/>
       <c r="W2" s="69"/>
@@ -13872,7 +12252,7 @@
       <c r="AH2" s="69"/>
       <c r="AI2" s="70"/>
       <c r="AJ2" s="71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" s="71"/>
       <c r="AL2" s="71"/>
@@ -13888,14 +12268,14 @@
       <c r="AT2" s="66"/>
       <c r="AU2" s="66"/>
       <c r="AV2" s="71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW2" s="71"/>
       <c r="AX2" s="71"/>
       <c r="AY2" s="71"/>
       <c r="AZ2" s="71"/>
       <c r="BA2" s="72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BB2" s="66"/>
       <c r="BC2" s="66"/>
@@ -13929,7 +12309,7 @@
     <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="4"/>
       <c r="Z5" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AR5" s="9"/>
       <c r="AZ5" s="10"/>
@@ -13940,7 +12320,7 @@
       <c r="AR6" s="9"/>
       <c r="AZ6" s="10"/>
       <c r="BF6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BL6" s="5"/>
     </row>
@@ -13973,17 +12353,17 @@
       <c r="A10" s="4"/>
       <c r="O10" s="13"/>
       <c r="Y10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AG10" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="AR10" s="9"/>
       <c r="AS10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ10" s="10"/>
       <c r="BL10" s="5"/>
@@ -13991,11 +12371,14 @@
     <row r="11" spans="1:64" ht="15" customHeight="1">
       <c r="A11" s="4"/>
       <c r="O11" s="13"/>
+      <c r="AC11" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="AG11" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR11" s="9"/>
       <c r="AZ11" s="10"/>
@@ -14004,11 +12387,14 @@
     <row r="12" spans="1:64" ht="15" customHeight="1">
       <c r="A12" s="4"/>
       <c r="O12" s="13"/>
+      <c r="AC12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="AG12" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR12" s="9"/>
       <c r="AZ12" s="10"/>
@@ -14021,11 +12407,14 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="13"/>
+      <c r="AC13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AG13" s="3" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR13" s="9"/>
       <c r="AZ13" s="10"/>
@@ -14034,11 +12423,14 @@
     <row r="14" spans="1:64" ht="15" customHeight="1" thickTop="1">
       <c r="A14" s="4"/>
       <c r="O14" s="13"/>
-      <c r="AG14" s="3" t="s">
-        <v>26</v>
+      <c r="AC14" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG14" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR14" s="9"/>
       <c r="AZ14" s="10"/>
@@ -14047,9 +12439,6 @@
     <row r="15" spans="1:64" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="4"/>
       <c r="O15" s="13"/>
-      <c r="AG15" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="AR15" s="9"/>
       <c r="AZ15" s="10"/>
       <c r="BL15" s="5"/>
@@ -14062,12 +12451,9 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="AG16" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="AR16" s="9"/>
-      <c r="AS16" s="25" t="s">
-        <v>30</v>
+      <c r="AS16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="AZ16" s="10"/>
       <c r="BL16" s="5"/>
@@ -14075,20 +12461,20 @@
     <row r="17" spans="1:64" ht="15" customHeight="1">
       <c r="A17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N17" s="15"/>
       <c r="AR17" s="9"/>
       <c r="AZ17" s="10"/>
       <c r="BF17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BL17" s="5"/>
     </row>
     <row r="18" spans="1:64" ht="15" customHeight="1">
       <c r="A18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N18" s="15"/>
       <c r="AR18" s="9"/>
@@ -14098,17 +12484,17 @@
     <row r="19" spans="1:64" ht="15" customHeight="1">
       <c r="A19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N19" s="15"/>
       <c r="Y19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR19" s="9"/>
       <c r="AZ19" s="10"/>
@@ -14117,14 +12503,14 @@
     <row r="20" spans="1:64" ht="15" customHeight="1">
       <c r="A20" s="4"/>
       <c r="C20" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N20" s="15"/>
       <c r="AH20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AR20" s="9"/>
       <c r="AZ20" s="10"/>
@@ -14134,10 +12520,10 @@
       <c r="A21" s="4"/>
       <c r="N21" s="15"/>
       <c r="AH21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR21" s="9"/>
       <c r="AZ21" s="10"/>
@@ -14147,10 +12533,10 @@
       <c r="A22" s="4"/>
       <c r="N22" s="15"/>
       <c r="AH22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AL22" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AR22" s="9"/>
       <c r="AZ22" s="10"/>
@@ -14160,14 +12546,14 @@
       <c r="A23" s="4"/>
       <c r="N23" s="15"/>
       <c r="AH23" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AR23" s="9"/>
       <c r="AS23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AZ23" s="10"/>
       <c r="BL23" s="5"/>
@@ -14180,10 +12566,10 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="AH24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AL24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AR24" s="17"/>
       <c r="AS24" s="18"/>
@@ -14204,10 +12590,10 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
       <c r="AH25" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AL25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AR25" s="6"/>
       <c r="AS25" s="7"/>
@@ -14224,10 +12610,10 @@
       <c r="A26" s="4"/>
       <c r="O26" s="13"/>
       <c r="AH26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AL26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AR26" s="9"/>
       <c r="AZ26" s="10"/>
@@ -14244,13 +12630,13 @@
       <c r="A28" s="4"/>
       <c r="O28" s="13"/>
       <c r="Y28" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AN28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" s="9"/>
       <c r="AZ28" s="10"/>
@@ -14260,7 +12646,7 @@
       <c r="A29" s="4"/>
       <c r="O29" s="13"/>
       <c r="AN29" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AR29" s="9"/>
       <c r="AZ29" s="10"/>
@@ -14270,7 +12656,7 @@
       <c r="A30" s="4"/>
       <c r="O30" s="13"/>
       <c r="AN30" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AR30" s="9"/>
       <c r="AZ30" s="10"/>
@@ -14292,7 +12678,7 @@
       <c r="AR32" s="9"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="62" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AZ32" s="10"/>
       <c r="BL32" s="5"/>
@@ -14305,13 +12691,13 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="Y33" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AN33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR33" s="9"/>
       <c r="AZ33" s="10"/>
@@ -14321,7 +12707,7 @@
       <c r="A34" s="4"/>
       <c r="O34" s="13"/>
       <c r="AN34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AR34" s="9"/>
       <c r="AZ34" s="10"/>
@@ -14366,17 +12752,17 @@
       <c r="A39" s="4"/>
       <c r="O39" s="13"/>
       <c r="Y39" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AH39" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AN39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR39" s="9"/>
       <c r="AU39" s="63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AZ39" s="10"/>
       <c r="BL39" s="5"/>
@@ -14385,7 +12771,7 @@
       <c r="A40" s="4"/>
       <c r="O40" s="13"/>
       <c r="AN40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AR40" s="9"/>
       <c r="AZ40" s="10"/>
@@ -14412,7 +12798,7 @@
     <row r="43" spans="1:64" ht="15" customHeight="1" thickTop="1">
       <c r="A43" s="4"/>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="12"/>
@@ -14426,7 +12812,7 @@
     <row r="44" spans="1:64" ht="15" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O44" s="13"/>
       <c r="AR44" s="9"/>
@@ -14436,7 +12822,7 @@
     <row r="45" spans="1:64" ht="15" customHeight="1">
       <c r="A45" s="4"/>
       <c r="D45" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I45" s="64">
         <v>600</v>
@@ -14444,17 +12830,17 @@
       <c r="J45" s="64"/>
       <c r="K45" s="64"/>
       <c r="L45" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O45" s="13"/>
       <c r="Y45" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AN45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR45" s="9"/>
       <c r="AZ45" s="10"/>
@@ -14463,7 +12849,7 @@
     <row r="46" spans="1:64" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="D46" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I46" s="65">
         <v>1024</v>
@@ -14471,15 +12857,15 @@
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
       <c r="L46" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O46" s="13"/>
       <c r="AN46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AR46" s="9"/>
       <c r="AU46" s="63" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AZ46" s="10"/>
       <c r="BL46" s="5"/>
@@ -14487,13 +12873,13 @@
     <row r="47" spans="1:64" ht="15" customHeight="1">
       <c r="A47" s="4"/>
       <c r="D47" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I47" s="3">
         <v>2</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O47" s="13"/>
       <c r="AR47" s="17"/>
@@ -14527,26 +12913,26 @@
     <row r="51" spans="1:64" ht="15" customHeight="1">
       <c r="A51" s="4"/>
       <c r="Y51" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH51" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AN51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BL51" s="5"/>
     </row>
     <row r="52" spans="1:64" ht="15" customHeight="1">
       <c r="A52" s="4"/>
       <c r="AN52" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BL52" s="5"/>
     </row>
@@ -14557,10 +12943,10 @@
     <row r="54" spans="1:64" ht="15" customHeight="1">
       <c r="A54" s="4"/>
       <c r="N54" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH54" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BL54" s="5"/>
     </row>
@@ -14571,7 +12957,7 @@
     <row r="56" spans="1:64" ht="15" customHeight="1">
       <c r="A56" s="4"/>
       <c r="Y56" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="BL56" s="5"/>
     </row>
@@ -14586,7 +12972,7 @@
     <row r="59" spans="1:64" ht="15" customHeight="1">
       <c r="A59" s="4"/>
       <c r="AH59" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BL59" s="5"/>
     </row>
@@ -14601,10 +12987,10 @@
     <row r="62" spans="1:64" ht="15" customHeight="1">
       <c r="A62" s="4"/>
       <c r="Y62" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AG62" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AV62" s="25"/>
       <c r="AW62" s="25"/>
@@ -14714,11 +13100,1390 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A455C-590E-47DF-B429-E54627F0B707}">
+  <dimension ref="A39:I125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="39" spans="2:7" ht="24">
+      <c r="B39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="41">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="42"/>
+    </row>
+    <row r="40" spans="2:7" ht="18.75">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C42" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C43" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C44" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C45" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C46" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C47" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C48" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C49" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C50" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C51" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C52" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C53" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C54" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C55" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C56" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C57" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C58" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C59" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C60" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="50">
+        <v>21001</v>
+      </c>
+      <c r="C61" s="51">
+        <v>1001</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="52">
+        <v>1518741</v>
+      </c>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="53"/>
+      <c r="C62" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="56">
+        <v>10426021</v>
+      </c>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+    </row>
+    <row r="66" spans="2:9" ht="24">
+      <c r="B66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="58">
+        <v>4.5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="42"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.75">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C69" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="45">
+        <v>597048</v>
+      </c>
+      <c r="F69" s="45">
+        <v>115201</v>
+      </c>
+      <c r="G69" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C70" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F70" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G70" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C71" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F71" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G71" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C72" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F72" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G72" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C73" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F73" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G73" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C74" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F74" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G74" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C75" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F75" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G75" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C76" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F76" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G76" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C77" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F77" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G77" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C78" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F78" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G78" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C79" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F79" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G79" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C80" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F80" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G80" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C81" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F81" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G81" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C82" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F82" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G82" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C83" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F83" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G83" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C84" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F84" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G84" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C85" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F85" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G85" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C86" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F86" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G86" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C87" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="48">
+        <v>597048</v>
+      </c>
+      <c r="F87" s="48">
+        <v>115201</v>
+      </c>
+      <c r="G87" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="51">
+        <v>21001</v>
+      </c>
+      <c r="C88" s="51">
+        <v>1001</v>
+      </c>
+      <c r="D88" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="52">
+        <v>597048</v>
+      </c>
+      <c r="F88" s="52">
+        <v>115201</v>
+      </c>
+      <c r="G88" s="52">
+        <v>1518741</v>
+      </c>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="53"/>
+      <c r="C89" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="60">
+        <v>597048</v>
+      </c>
+      <c r="F89" s="60">
+        <v>115201</v>
+      </c>
+      <c r="G89" s="60">
+        <v>1518741</v>
+      </c>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+    </row>
+    <row r="93" spans="2:9" ht="24">
+      <c r="B93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="41">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" s="42"/>
+    </row>
+    <row r="94" spans="2:9" ht="18.75">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C96" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C97" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C98" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D98" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C99" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C100" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C101" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C102" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C103" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C104" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C105" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C106" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D106" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C107" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C108" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D108" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C109" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C110" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C111" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C112" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D112" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="B113" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C113" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="B114" s="47">
+        <v>21001</v>
+      </c>
+      <c r="C114" s="47">
+        <v>1001</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" s="48">
+        <v>1518741</v>
+      </c>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="B115" s="51">
+        <v>21001</v>
+      </c>
+      <c r="C115" s="51">
+        <v>1001</v>
+      </c>
+      <c r="D115" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="52">
+        <v>1518741</v>
+      </c>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="B116" s="53"/>
+      <c r="C116" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" s="61"/>
+      <c r="E116" s="60">
+        <v>1518741</v>
+      </c>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="B117" s="53"/>
+      <c r="C117" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="56">
+        <v>10426021</v>
+      </c>
+      <c r="F117" s="57"/>
+      <c r="G117" s="57"/>
+    </row>
+    <row r="121" spans="1:7" ht="24">
+      <c r="A121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="41">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" s="42"/>
+    </row>
+    <row r="122" spans="1:7" ht="18.75">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="B123" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G123" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="B124" s="44">
+        <v>21001</v>
+      </c>
+      <c r="C124" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="B125" s="53"/>
+      <c r="C125" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" s="45">
+        <v>1518741</v>
+      </c>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD6CF4B-365B-4D50-AAAC-3AA79B2CDBBA}">
   <dimension ref="A1:BC96"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ46" sqref="AJ46:AQ46"/>
     </sheetView>
   </sheetViews>
@@ -14728,262 +14493,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="95" t="s">
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="95" t="s">
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="88"/>
+    </row>
+    <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="95" t="s">
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="99"/>
-      <c r="BB1" s="99"/>
-      <c r="BC1" s="100"/>
-    </row>
-    <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="99"/>
-      <c r="AX2" s="99"/>
-      <c r="AY2" s="99"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="99"/>
-      <c r="BB2" s="99"/>
-      <c r="BC2" s="100"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="88"/>
     </row>
     <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:55" ht="13.5">
-      <c r="A4" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="87"/>
+      <c r="A4" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="91"/>
     </row>
     <row r="5" spans="1:55" ht="13.5">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="86"/>
-      <c r="AX5" s="86"/>
-      <c r="AY5" s="86"/>
-      <c r="AZ5" s="86"/>
-      <c r="BA5" s="86"/>
-      <c r="BB5" s="86"/>
-      <c r="BC5" s="88"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="93"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="93"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="93"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="93"/>
+      <c r="BC5" s="94"/>
     </row>
     <row r="6" spans="1:55" ht="13.5">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -15038,9 +14803,9 @@
       <c r="BC6" s="31"/>
     </row>
     <row r="7" spans="1:55" ht="13.5">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="AD7" s="32"/>
@@ -15048,9 +14813,9 @@
       <c r="BC7" s="33"/>
     </row>
     <row r="8" spans="1:55" ht="13.5">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="AD8" s="32"/>
@@ -15058,9 +14823,9 @@
       <c r="BC8" s="33"/>
     </row>
     <row r="9" spans="1:55" ht="13.5">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="AD9" s="32"/>
@@ -15068,9 +14833,9 @@
       <c r="BC9" s="33"/>
     </row>
     <row r="10" spans="1:55" ht="13.5">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="AD10" s="32"/>
@@ -15078,9 +14843,9 @@
       <c r="BC10" s="33"/>
     </row>
     <row r="11" spans="1:55" ht="13.5">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="AD11" s="32"/>
@@ -15088,9 +14853,9 @@
       <c r="BC11" s="33"/>
     </row>
     <row r="12" spans="1:55" ht="13.5">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="AD12" s="32"/>
@@ -15098,9 +14863,9 @@
       <c r="BC12" s="33"/>
     </row>
     <row r="13" spans="1:55" ht="13.5">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="AD13" s="32"/>
@@ -15108,9 +14873,9 @@
       <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:55" ht="13.5">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="AD14" s="32"/>
@@ -15118,9 +14883,9 @@
       <c r="BC14" s="33"/>
     </row>
     <row r="15" spans="1:55" ht="13.5">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="AD15" s="32"/>
@@ -15128,9 +14893,9 @@
       <c r="BC15" s="33"/>
     </row>
     <row r="16" spans="1:55" ht="13.5">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="AD16" s="32"/>
@@ -15138,9 +14903,9 @@
       <c r="BC16" s="33"/>
     </row>
     <row r="17" spans="1:55" ht="13.5">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="AD17" s="32"/>
@@ -15148,9 +14913,9 @@
       <c r="BC17" s="33"/>
     </row>
     <row r="18" spans="1:55" ht="13.5">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="AD18" s="32"/>
@@ -15158,9 +14923,9 @@
       <c r="BC18" s="33"/>
     </row>
     <row r="19" spans="1:55" ht="13.5">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="AD19" s="32"/>
@@ -15168,9 +14933,9 @@
       <c r="BC19" s="33"/>
     </row>
     <row r="20" spans="1:55" ht="13.5">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="AD20" s="32"/>
@@ -15178,9 +14943,9 @@
       <c r="BC20" s="33"/>
     </row>
     <row r="21" spans="1:55" ht="13.5">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="AD21" s="32"/>
@@ -15188,9 +14953,9 @@
       <c r="BC21" s="33"/>
     </row>
     <row r="22" spans="1:55" ht="13.5">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="AD22" s="32"/>
@@ -15198,9 +14963,9 @@
       <c r="BC22" s="33"/>
     </row>
     <row r="23" spans="1:55" ht="13.5">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="AD23" s="32"/>
@@ -15208,9 +14973,9 @@
       <c r="BC23" s="33"/>
     </row>
     <row r="24" spans="1:55" ht="13.5">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="AD24" s="32"/>
@@ -15218,9 +14983,9 @@
       <c r="BC24" s="33"/>
     </row>
     <row r="25" spans="1:55" ht="13.5">
-      <c r="A25" s="74"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="AD25" s="32"/>
@@ -15228,9 +14993,9 @@
       <c r="BC25" s="33"/>
     </row>
     <row r="26" spans="1:55" ht="13.5">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="AD26" s="32"/>
@@ -15238,9 +15003,9 @@
       <c r="BC26" s="33"/>
     </row>
     <row r="27" spans="1:55" ht="13.5">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="AD27" s="32"/>
@@ -15248,9 +15013,9 @@
       <c r="BC27" s="33"/>
     </row>
     <row r="28" spans="1:55" ht="13.5">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="AD28" s="32"/>
@@ -15258,9 +15023,9 @@
       <c r="BC28" s="33"/>
     </row>
     <row r="29" spans="1:55" ht="13.5">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="AD29" s="32"/>
@@ -15268,9 +15033,9 @@
       <c r="BC29" s="33"/>
     </row>
     <row r="30" spans="1:55" ht="13.5">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="AD30" s="32"/>
@@ -15278,9 +15043,9 @@
       <c r="BC30" s="33"/>
     </row>
     <row r="31" spans="1:55" ht="13.5">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="AD31" s="32"/>
@@ -15288,9 +15053,9 @@
       <c r="BC31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="13.5">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="AD32" s="32"/>
@@ -15298,9 +15063,9 @@
       <c r="BC32" s="33"/>
     </row>
     <row r="33" spans="1:55" ht="13.5">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="AD33" s="32"/>
@@ -15308,9 +15073,9 @@
       <c r="BC33" s="33"/>
     </row>
     <row r="34" spans="1:55" ht="13.5">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="AD34" s="32"/>
@@ -15318,9 +15083,9 @@
       <c r="BC34" s="33"/>
     </row>
     <row r="35" spans="1:55" ht="13.5">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="AD35" s="32"/>
@@ -15328,9 +15093,9 @@
       <c r="BC35" s="33"/>
     </row>
     <row r="36" spans="1:55" ht="13.5">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="AD36" s="32"/>
@@ -15338,9 +15103,9 @@
       <c r="BC36" s="33"/>
     </row>
     <row r="37" spans="1:55" ht="13.5">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="AD37" s="32"/>
@@ -15348,9 +15113,9 @@
       <c r="BC37" s="33"/>
     </row>
     <row r="38" spans="1:55" ht="13.5">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="AD38" s="32"/>
@@ -15358,9 +15123,9 @@
       <c r="BC38" s="33"/>
     </row>
     <row r="39" spans="1:55" ht="13.5">
-      <c r="A39" s="77"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="AD39" s="32"/>
@@ -15368,9 +15133,9 @@
       <c r="BC39" s="33"/>
     </row>
     <row r="40" spans="1:55" ht="13.5">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -15487,138 +15252,138 @@
       <c r="C42" s="38"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
+      <c r="AC45" s="81"/>
+      <c r="AD45" s="81"/>
+      <c r="AE45" s="82"/>
+      <c r="AF45" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="95" t="s">
+      <c r="AG45" s="81"/>
+      <c r="AH45" s="81"/>
+      <c r="AI45" s="82"/>
+      <c r="AJ45" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK45" s="84"/>
+      <c r="AL45" s="84"/>
+      <c r="AM45" s="84"/>
+      <c r="AN45" s="84"/>
+      <c r="AO45" s="84"/>
+      <c r="AP45" s="84"/>
+      <c r="AQ45" s="85"/>
+      <c r="AR45" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="95" t="s">
+      <c r="AS45" s="81"/>
+      <c r="AT45" s="81"/>
+      <c r="AU45" s="82"/>
+      <c r="AV45" s="86">
+        <v>45814</v>
+      </c>
+      <c r="AW45" s="87"/>
+      <c r="AX45" s="87"/>
+      <c r="AY45" s="87"/>
+      <c r="AZ45" s="87"/>
+      <c r="BA45" s="87"/>
+      <c r="BB45" s="87"/>
+      <c r="BC45" s="88"/>
+    </row>
+    <row r="46" spans="1:55" ht="14.25" customHeight="1">
+      <c r="A46" s="77"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="84"/>
+      <c r="V46" s="84"/>
+      <c r="W46" s="84"/>
+      <c r="X46" s="84"/>
+      <c r="Y46" s="84"/>
+      <c r="Z46" s="84"/>
+      <c r="AA46" s="84"/>
+      <c r="AB46" s="84"/>
+      <c r="AC46" s="84"/>
+      <c r="AD46" s="84"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="97"/>
-      <c r="AF45" s="95" t="s">
+      <c r="AG46" s="78"/>
+      <c r="AH46" s="78"/>
+      <c r="AI46" s="79"/>
+      <c r="AJ46" s="83"/>
+      <c r="AK46" s="84"/>
+      <c r="AL46" s="84"/>
+      <c r="AM46" s="84"/>
+      <c r="AN46" s="84"/>
+      <c r="AO46" s="84"/>
+      <c r="AP46" s="84"/>
+      <c r="AQ46" s="85"/>
+      <c r="AR46" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="AG45" s="96"/>
-      <c r="AH45" s="96"/>
-      <c r="AI45" s="97"/>
-      <c r="AJ45" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK45" s="93"/>
-      <c r="AL45" s="93"/>
-      <c r="AM45" s="93"/>
-      <c r="AN45" s="93"/>
-      <c r="AO45" s="93"/>
-      <c r="AP45" s="93"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS45" s="96"/>
-      <c r="AT45" s="96"/>
-      <c r="AU45" s="97"/>
-      <c r="AV45" s="98">
-        <v>45814</v>
-      </c>
-      <c r="AW45" s="99"/>
-      <c r="AX45" s="99"/>
-      <c r="AY45" s="99"/>
-      <c r="AZ45" s="99"/>
-      <c r="BA45" s="99"/>
-      <c r="BB45" s="99"/>
-      <c r="BC45" s="100"/>
-    </row>
-    <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="101"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="93"/>
-      <c r="AA46" s="93"/>
-      <c r="AB46" s="93"/>
-      <c r="AC46" s="93"/>
-      <c r="AD46" s="93"/>
-      <c r="AE46" s="94"/>
-      <c r="AF46" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG46" s="102"/>
-      <c r="AH46" s="102"/>
-      <c r="AI46" s="103"/>
-      <c r="AJ46" s="92"/>
-      <c r="AK46" s="93"/>
-      <c r="AL46" s="93"/>
-      <c r="AM46" s="93"/>
-      <c r="AN46" s="93"/>
-      <c r="AO46" s="93"/>
-      <c r="AP46" s="93"/>
-      <c r="AQ46" s="94"/>
-      <c r="AR46" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS46" s="102"/>
-      <c r="AT46" s="102"/>
-      <c r="AU46" s="103"/>
-      <c r="AV46" s="98"/>
-      <c r="AW46" s="99"/>
-      <c r="AX46" s="99"/>
-      <c r="AY46" s="99"/>
-      <c r="AZ46" s="99"/>
-      <c r="BA46" s="99"/>
-      <c r="BB46" s="99"/>
-      <c r="BC46" s="100"/>
+      <c r="AS46" s="78"/>
+      <c r="AT46" s="78"/>
+      <c r="AU46" s="79"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="87"/>
+      <c r="AX46" s="87"/>
+      <c r="AY46" s="87"/>
+      <c r="AZ46" s="87"/>
+      <c r="BA46" s="87"/>
+      <c r="BB46" s="87"/>
+      <c r="BC46" s="88"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
       <c r="A47" s="27"/>
@@ -15678,129 +15443,129 @@
       <c r="BC47" s="28"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="84"/>
-      <c r="W48" s="84"/>
-      <c r="X48" s="84"/>
-      <c r="Y48" s="84"/>
-      <c r="Z48" s="84"/>
-      <c r="AA48" s="84"/>
-      <c r="AB48" s="84"/>
-      <c r="AC48" s="84"/>
-      <c r="AD48" s="83"/>
-      <c r="AE48" s="84"/>
-      <c r="AF48" s="84"/>
-      <c r="AG48" s="84"/>
-      <c r="AH48" s="84"/>
-      <c r="AI48" s="84"/>
-      <c r="AJ48" s="84"/>
-      <c r="AK48" s="84"/>
-      <c r="AL48" s="84"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="84"/>
-      <c r="AO48" s="84"/>
-      <c r="AP48" s="87"/>
-      <c r="AQ48" s="84"/>
-      <c r="AR48" s="84"/>
-      <c r="AS48" s="84"/>
-      <c r="AT48" s="84"/>
-      <c r="AU48" s="84"/>
-      <c r="AV48" s="84"/>
-      <c r="AW48" s="84"/>
-      <c r="AX48" s="84"/>
-      <c r="AY48" s="84"/>
-      <c r="AZ48" s="84"/>
-      <c r="BA48" s="84"/>
-      <c r="BB48" s="84"/>
-      <c r="BC48" s="87"/>
+      <c r="A48" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="90"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="R48" s="90"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="90"/>
+      <c r="U48" s="90"/>
+      <c r="V48" s="90"/>
+      <c r="W48" s="90"/>
+      <c r="X48" s="90"/>
+      <c r="Y48" s="90"/>
+      <c r="Z48" s="90"/>
+      <c r="AA48" s="90"/>
+      <c r="AB48" s="90"/>
+      <c r="AC48" s="90"/>
+      <c r="AD48" s="89"/>
+      <c r="AE48" s="90"/>
+      <c r="AF48" s="90"/>
+      <c r="AG48" s="90"/>
+      <c r="AH48" s="90"/>
+      <c r="AI48" s="90"/>
+      <c r="AJ48" s="90"/>
+      <c r="AK48" s="90"/>
+      <c r="AL48" s="90"/>
+      <c r="AM48" s="90"/>
+      <c r="AN48" s="90"/>
+      <c r="AO48" s="90"/>
+      <c r="AP48" s="91"/>
+      <c r="AQ48" s="90"/>
+      <c r="AR48" s="90"/>
+      <c r="AS48" s="90"/>
+      <c r="AT48" s="90"/>
+      <c r="AU48" s="90"/>
+      <c r="AV48" s="90"/>
+      <c r="AW48" s="90"/>
+      <c r="AX48" s="90"/>
+      <c r="AY48" s="90"/>
+      <c r="AZ48" s="90"/>
+      <c r="BA48" s="90"/>
+      <c r="BB48" s="90"/>
+      <c r="BC48" s="91"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="85"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
-      <c r="Q49" s="85"/>
-      <c r="R49" s="86"/>
-      <c r="S49" s="86"/>
-      <c r="T49" s="86"/>
-      <c r="U49" s="86"/>
-      <c r="V49" s="86"/>
-      <c r="W49" s="86"/>
-      <c r="X49" s="86"/>
-      <c r="Y49" s="86"/>
-      <c r="Z49" s="86"/>
-      <c r="AA49" s="86"/>
-      <c r="AB49" s="86"/>
-      <c r="AC49" s="86"/>
-      <c r="AD49" s="85"/>
-      <c r="AE49" s="86"/>
-      <c r="AF49" s="86"/>
-      <c r="AG49" s="86"/>
-      <c r="AH49" s="86"/>
-      <c r="AI49" s="86"/>
-      <c r="AJ49" s="86"/>
-      <c r="AK49" s="86"/>
-      <c r="AL49" s="86"/>
-      <c r="AM49" s="86"/>
-      <c r="AN49" s="86"/>
-      <c r="AO49" s="86"/>
-      <c r="AP49" s="88"/>
-      <c r="AQ49" s="86"/>
-      <c r="AR49" s="86"/>
-      <c r="AS49" s="86"/>
-      <c r="AT49" s="86"/>
-      <c r="AU49" s="86"/>
-      <c r="AV49" s="86"/>
-      <c r="AW49" s="86"/>
-      <c r="AX49" s="86"/>
-      <c r="AY49" s="86"/>
-      <c r="AZ49" s="86"/>
-      <c r="BA49" s="86"/>
-      <c r="BB49" s="86"/>
-      <c r="BC49" s="88"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
+      <c r="AA49" s="93"/>
+      <c r="AB49" s="93"/>
+      <c r="AC49" s="93"/>
+      <c r="AD49" s="92"/>
+      <c r="AE49" s="93"/>
+      <c r="AF49" s="93"/>
+      <c r="AG49" s="93"/>
+      <c r="AH49" s="93"/>
+      <c r="AI49" s="93"/>
+      <c r="AJ49" s="93"/>
+      <c r="AK49" s="93"/>
+      <c r="AL49" s="93"/>
+      <c r="AM49" s="93"/>
+      <c r="AN49" s="93"/>
+      <c r="AO49" s="93"/>
+      <c r="AP49" s="94"/>
+      <c r="AQ49" s="93"/>
+      <c r="AR49" s="93"/>
+      <c r="AS49" s="93"/>
+      <c r="AT49" s="93"/>
+      <c r="AU49" s="93"/>
+      <c r="AV49" s="93"/>
+      <c r="AW49" s="93"/>
+      <c r="AX49" s="93"/>
+      <c r="AY49" s="93"/>
+      <c r="AZ49" s="93"/>
+      <c r="BA49" s="93"/>
+      <c r="BB49" s="93"/>
+      <c r="BC49" s="94"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="89"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="91"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -15855,9 +15620,9 @@
       <c r="BC50" s="31"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="74"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="76"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="AD51" s="32"/>
@@ -15865,9 +15630,9 @@
       <c r="BC51" s="33"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="AD52" s="32"/>
@@ -15875,9 +15640,9 @@
       <c r="BC52" s="33"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="74"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="76"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="AD53" s="32"/>
@@ -15885,9 +15650,9 @@
       <c r="BC53" s="33"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="74"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="AD54" s="32"/>
@@ -15895,9 +15660,9 @@
       <c r="BC54" s="33"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="74"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="76"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="AD55" s="32"/>
@@ -15905,9 +15670,9 @@
       <c r="BC55" s="33"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="74"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="AD56" s="32"/>
@@ -15915,9 +15680,9 @@
       <c r="BC56" s="33"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="76"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="AD57" s="32"/>
@@ -15925,9 +15690,9 @@
       <c r="BC57" s="33"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="AD58" s="32"/>
@@ -15935,9 +15700,9 @@
       <c r="BC58" s="33"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="76"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="AD59" s="32"/>
@@ -15945,9 +15710,9 @@
       <c r="BC59" s="33"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="AD60" s="32"/>
@@ -15955,9 +15720,9 @@
       <c r="BC60" s="33"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="74"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="76"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="AD61" s="32"/>
@@ -15965,9 +15730,9 @@
       <c r="BC61" s="33"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
       <c r="D62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="AD62" s="32"/>
@@ -15975,77 +15740,77 @@
       <c r="BC62" s="33"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
       <c r="Q63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="BC63" s="33"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="86"/>
-      <c r="N64" s="86"/>
-      <c r="O64" s="86"/>
-      <c r="P64" s="86"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
       <c r="Q64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AP64" s="33"/>
       <c r="AQ64" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AR64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BC64" s="33"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="74"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="76"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="AD65" s="32"/>
       <c r="AP65" s="33"/>
       <c r="AQ65" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AR65" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BC65" s="33"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="97"/>
       <c r="D66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="AD66" s="32"/>
@@ -16053,9 +15818,9 @@
       <c r="BC66" s="33"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="74"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="76"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="97"/>
       <c r="D67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="AD67" s="32"/>
@@ -16063,9 +15828,9 @@
       <c r="BC67" s="33"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="74"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="97"/>
       <c r="D68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="AD68" s="32"/>
@@ -16073,9 +15838,9 @@
       <c r="BC68" s="33"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="74"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="76"/>
+      <c r="A69" s="95"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="97"/>
       <c r="D69" s="32"/>
       <c r="Q69" s="32"/>
       <c r="AD69" s="32"/>
@@ -16083,9 +15848,9 @@
       <c r="BC69" s="33"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="74"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="76"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="97"/>
       <c r="D70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="AD70" s="32"/>
@@ -16093,25 +15858,25 @@
       <c r="BC70" s="33"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="74"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="76"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="97"/>
       <c r="D71" s="32"/>
       <c r="Q71" s="32"/>
       <c r="AD71" s="32"/>
       <c r="AP71" s="33"/>
       <c r="AQ71" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR71" t="s">
         <v>118</v>
       </c>
-      <c r="AR71" t="s">
-        <v>121</v>
-      </c>
       <c r="BC71" s="33"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="74"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="76"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="32"/>
       <c r="Q72" s="32"/>
       <c r="AD72" s="32"/>
@@ -16119,9 +15884,9 @@
       <c r="BC72" s="33"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="79"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="AD73" s="32"/>
@@ -16129,9 +15894,9 @@
       <c r="BC73" s="33"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="77"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="79"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="100"/>
       <c r="D74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="AD74" s="32"/>
@@ -16139,9 +15904,9 @@
       <c r="BC74" s="33"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="77"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="79"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="100"/>
       <c r="D75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="AD75" s="32"/>
@@ -16149,9 +15914,9 @@
       <c r="BC75" s="33"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="79"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="100"/>
       <c r="D76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="AD76" s="32"/>
@@ -16159,9 +15924,9 @@
       <c r="BC76" s="33"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="77"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="79"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="100"/>
       <c r="D77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="AD77" s="32"/>
@@ -16169,9 +15934,9 @@
       <c r="BC77" s="33"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="79"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="100"/>
       <c r="D78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="AD78" s="32"/>
@@ -16179,9 +15944,9 @@
       <c r="BC78" s="33"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="79"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="100"/>
       <c r="D79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="AD79" s="32"/>
@@ -16189,9 +15954,9 @@
       <c r="BC79" s="33"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="77"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="79"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="100"/>
       <c r="D80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="AD80" s="32"/>
@@ -16199,25 +15964,25 @@
       <c r="BC80" s="33"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="77"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="79"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="100"/>
       <c r="D81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="AD81" s="32"/>
       <c r="AP81" s="33"/>
       <c r="AQ81" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AR81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="BC81" s="33"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="77"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="79"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="100"/>
       <c r="D82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="AD82" s="32"/>
@@ -16225,9 +15990,9 @@
       <c r="BC82" s="33"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="77"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="79"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="99"/>
+      <c r="C83" s="100"/>
       <c r="D83" s="32"/>
       <c r="Q83" s="32"/>
       <c r="AD83" s="32"/>
@@ -16235,9 +16000,9 @@
       <c r="BC83" s="33"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="77"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="79"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="100"/>
       <c r="D84" s="32"/>
       <c r="Q84" s="32"/>
       <c r="AD84" s="32"/>
@@ -16245,9 +16010,9 @@
       <c r="BC84" s="33"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="77"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="79"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="32"/>
       <c r="Q85" s="32"/>
       <c r="AD85" s="32"/>
@@ -16255,9 +16020,9 @@
       <c r="BC85" s="33"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="77"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="79"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="100"/>
       <c r="D86" s="32"/>
       <c r="Q86" s="32"/>
       <c r="AD86" s="32"/>
@@ -16265,9 +16030,9 @@
       <c r="BC86" s="33"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="77"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="79"/>
+      <c r="A87" s="98"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="100"/>
       <c r="D87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="AD87" s="32"/>
@@ -16275,9 +16040,9 @@
       <c r="BC87" s="33"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="77"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="79"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="100"/>
       <c r="D88" s="32"/>
       <c r="Q88" s="32"/>
       <c r="AD88" s="32"/>
@@ -16285,9 +16050,9 @@
       <c r="BC88" s="33"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="77"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="79"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="100"/>
       <c r="D89" s="32"/>
       <c r="Q89" s="32"/>
       <c r="AD89" s="32"/>
@@ -16295,9 +16060,9 @@
       <c r="BC89" s="33"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="77"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="79"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="100"/>
       <c r="D90" s="32"/>
       <c r="Q90" s="32"/>
       <c r="AD90" s="32"/>
@@ -16305,73 +16070,73 @@
       <c r="BC90" s="33"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="77"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="79"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="100"/>
       <c r="D91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="AD91" s="32"/>
       <c r="AP91" s="33"/>
       <c r="AQ91" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AR91" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="BC91" s="33"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="77"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="79"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="100"/>
       <c r="D92" s="32"/>
       <c r="Q92" s="32"/>
       <c r="AD92" s="32"/>
       <c r="AP92" s="33"/>
       <c r="AQ92" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AR92" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BC92" s="33"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A93" s="77"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="79"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="100"/>
       <c r="D93" s="32"/>
       <c r="Q93" s="32"/>
       <c r="AD93" s="32"/>
       <c r="AP93" s="33"/>
       <c r="AQ93" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AR93" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BC93" s="33"/>
     </row>
     <row r="94" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A94" s="77"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="79"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="99"/>
+      <c r="C94" s="100"/>
       <c r="D94" s="32"/>
       <c r="Q94" s="32"/>
       <c r="AD94" s="32"/>
       <c r="AP94" s="33"/>
       <c r="AQ94" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AR94" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BC94" s="33"/>
     </row>
     <row r="95" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A95" s="77"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="79"/>
+      <c r="A95" s="98"/>
+      <c r="B95" s="99"/>
+      <c r="C95" s="100"/>
       <c r="D95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="AD95" s="32"/>
@@ -16379,9 +16144,9 @@
       <c r="BC95" s="33"/>
     </row>
     <row r="96" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A96" s="80"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="82"/>
+      <c r="A96" s="101"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="103"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -16437,33 +16202,12 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
-    <mergeCell ref="AQ48:BC49"/>
-    <mergeCell ref="AV1:BC1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:BC2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="A13:C28"/>
-    <mergeCell ref="A29:C40"/>
-    <mergeCell ref="A6:C12"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="O45:AE45"/>
-    <mergeCell ref="Q48:AC49"/>
-    <mergeCell ref="AD48:AP49"/>
+    <mergeCell ref="A57:C72"/>
+    <mergeCell ref="A73:C96"/>
+    <mergeCell ref="D63:P64"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:P49"/>
+    <mergeCell ref="A50:C56"/>
     <mergeCell ref="AJ45:AQ45"/>
     <mergeCell ref="AR45:AU45"/>
     <mergeCell ref="AV45:BC45"/>
@@ -16474,12 +16218,33 @@
     <mergeCell ref="AR46:AU46"/>
     <mergeCell ref="AV46:BC46"/>
     <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="A57:C72"/>
-    <mergeCell ref="A73:C96"/>
-    <mergeCell ref="D63:P64"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="D48:P49"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="O45:AE45"/>
+    <mergeCell ref="Q48:AC49"/>
+    <mergeCell ref="AD48:AP49"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="A13:C28"/>
+    <mergeCell ref="A29:C40"/>
+    <mergeCell ref="A6:C12"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="AQ48:BC49"/>
+    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:BC2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16487,12 +16252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A787FDD9-CEBD-4A9C-80FE-0E245A10CDA7}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16508,136 +16273,136 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="C6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -16647,7 +16412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97420AAF-D3E0-435B-8240-AAA34C2F822D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16670,7 +16435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9252281D-548E-4462-B5BF-37DF1747F4C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16719,7 +16484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED2544B-8D98-45F6-AB64-2F366EC5A64E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16742,7 +16507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B5982-8541-44DB-B3BD-1B096671C8F5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16768,7 +16533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA48FBA2-72B7-4C12-94E8-D245E2213145}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16793,4 +16558,27 @@
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED03A-26E0-4B65-8761-FC4FD6E2F58A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
+++ b/市場_2025改修/基本設計_2025/概要20250606修正.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1733EC-EB4B-47B8-A25B-C5ED959D3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91989DBB-9F62-44E8-98B5-7BFAFD022673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{78BC9F0C-B871-4580-9558-94BE9D1399D8}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ構成" sheetId="9" r:id="rId1"/>
@@ -1948,67 +1948,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2038,6 +1984,24 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2047,13 +2011,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11100,6 +11100,402 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EF9609-C9D0-4090-5D03-AA4EA86CFFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="802822"/>
+          <a:ext cx="5510893" cy="1823357"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615042</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F13B08-0407-492B-9395-427C30428B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4697185" y="2628900"/>
+          <a:ext cx="2065565" cy="1823357"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>231320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>24494</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AECD57E-5F21-42E9-A726-846F5C3F09AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4884963"/>
+          <a:ext cx="2065565" cy="952501"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302078</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3173DA81-D676-4D3D-98F3-F1209248EB40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7786007" y="7473041"/>
+          <a:ext cx="2065565" cy="952501"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3C3776-47DB-4EAB-9446-A89B91F23C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9748157" y="7502977"/>
+          <a:ext cx="2065565" cy="952501"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>473529</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6238660C-3BE7-462D-AAAC-EFDABCAC71FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="2816678"/>
+          <a:ext cx="2065565" cy="1564822"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12158,23 +12554,23 @@
       <c r="R1" s="67"/>
       <c r="S1" s="67"/>
       <c r="T1" s="67"/>
-      <c r="U1" s="107" t="s">
+      <c r="U1" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="109"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="76"/>
       <c r="AJ1" s="71" t="s">
         <v>7</v>
       </c>
@@ -13104,7 +13500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A455C-590E-47DF-B429-E54627F0B707}">
   <dimension ref="A39:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -14493,262 +14889,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="80" t="s">
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="80" t="s">
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="80" t="s">
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="88"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="101"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
+      <c r="BC1" s="103"/>
     </row>
     <row r="2" spans="1:55" s="27" customFormat="1" ht="16.5">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="83" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="77" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="77" t="s">
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="88"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="103"/>
     </row>
     <row r="3" spans="1:55" s="27" customFormat="1" ht="16.5">
       <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:55" ht="13.5">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="89" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="89" t="s">
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="91"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="90"/>
     </row>
     <row r="5" spans="1:55" ht="13.5">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="93"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="93"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="93"/>
-      <c r="BC5" s="94"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="91"/>
     </row>
     <row r="6" spans="1:55" ht="13.5">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -14803,9 +15199,9 @@
       <c r="BC6" s="31"/>
     </row>
     <row r="7" spans="1:55" ht="13.5">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="AD7" s="32"/>
@@ -14813,9 +15209,9 @@
       <c r="BC7" s="33"/>
     </row>
     <row r="8" spans="1:55" ht="13.5">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="AD8" s="32"/>
@@ -14823,9 +15219,9 @@
       <c r="BC8" s="33"/>
     </row>
     <row r="9" spans="1:55" ht="13.5">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="AD9" s="32"/>
@@ -14833,9 +15229,9 @@
       <c r="BC9" s="33"/>
     </row>
     <row r="10" spans="1:55" ht="13.5">
-      <c r="A10" s="95"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="AD10" s="32"/>
@@ -14843,9 +15239,9 @@
       <c r="BC10" s="33"/>
     </row>
     <row r="11" spans="1:55" ht="13.5">
-      <c r="A11" s="95"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="AD11" s="32"/>
@@ -14853,9 +15249,9 @@
       <c r="BC11" s="33"/>
     </row>
     <row r="12" spans="1:55" ht="13.5">
-      <c r="A12" s="95"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="AD12" s="32"/>
@@ -14863,9 +15259,9 @@
       <c r="BC12" s="33"/>
     </row>
     <row r="13" spans="1:55" ht="13.5">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="AD13" s="32"/>
@@ -14873,9 +15269,9 @@
       <c r="BC13" s="33"/>
     </row>
     <row r="14" spans="1:55" ht="13.5">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="AD14" s="32"/>
@@ -14883,9 +15279,9 @@
       <c r="BC14" s="33"/>
     </row>
     <row r="15" spans="1:55" ht="13.5">
-      <c r="A15" s="95"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="AD15" s="32"/>
@@ -14893,9 +15289,9 @@
       <c r="BC15" s="33"/>
     </row>
     <row r="16" spans="1:55" ht="13.5">
-      <c r="A16" s="95"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="AD16" s="32"/>
@@ -14903,9 +15299,9 @@
       <c r="BC16" s="33"/>
     </row>
     <row r="17" spans="1:55" ht="13.5">
-      <c r="A17" s="95"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="AD17" s="32"/>
@@ -14913,9 +15309,9 @@
       <c r="BC17" s="33"/>
     </row>
     <row r="18" spans="1:55" ht="13.5">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="AD18" s="32"/>
@@ -14923,9 +15319,9 @@
       <c r="BC18" s="33"/>
     </row>
     <row r="19" spans="1:55" ht="13.5">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="AD19" s="32"/>
@@ -14933,9 +15329,9 @@
       <c r="BC19" s="33"/>
     </row>
     <row r="20" spans="1:55" ht="13.5">
-      <c r="A20" s="95"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="AD20" s="32"/>
@@ -14943,9 +15339,9 @@
       <c r="BC20" s="33"/>
     </row>
     <row r="21" spans="1:55" ht="13.5">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="AD21" s="32"/>
@@ -14953,9 +15349,9 @@
       <c r="BC21" s="33"/>
     </row>
     <row r="22" spans="1:55" ht="13.5">
-      <c r="A22" s="95"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="AD22" s="32"/>
@@ -14963,9 +15359,9 @@
       <c r="BC22" s="33"/>
     </row>
     <row r="23" spans="1:55" ht="13.5">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="AD23" s="32"/>
@@ -14973,9 +15369,9 @@
       <c r="BC23" s="33"/>
     </row>
     <row r="24" spans="1:55" ht="13.5">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="AD24" s="32"/>
@@ -14983,9 +15379,9 @@
       <c r="BC24" s="33"/>
     </row>
     <row r="25" spans="1:55" ht="13.5">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="AD25" s="32"/>
@@ -14993,9 +15389,9 @@
       <c r="BC25" s="33"/>
     </row>
     <row r="26" spans="1:55" ht="13.5">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="AD26" s="32"/>
@@ -15003,9 +15399,9 @@
       <c r="BC26" s="33"/>
     </row>
     <row r="27" spans="1:55" ht="13.5">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="AD27" s="32"/>
@@ -15013,9 +15409,9 @@
       <c r="BC27" s="33"/>
     </row>
     <row r="28" spans="1:55" ht="13.5">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="AD28" s="32"/>
@@ -15023,9 +15419,9 @@
       <c r="BC28" s="33"/>
     </row>
     <row r="29" spans="1:55" ht="13.5">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="AD29" s="32"/>
@@ -15033,9 +15429,9 @@
       <c r="BC29" s="33"/>
     </row>
     <row r="30" spans="1:55" ht="13.5">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="AD30" s="32"/>
@@ -15043,9 +15439,9 @@
       <c r="BC30" s="33"/>
     </row>
     <row r="31" spans="1:55" ht="13.5">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="AD31" s="32"/>
@@ -15053,9 +15449,9 @@
       <c r="BC31" s="33"/>
     </row>
     <row r="32" spans="1:55" ht="13.5">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="AD32" s="32"/>
@@ -15063,9 +15459,9 @@
       <c r="BC32" s="33"/>
     </row>
     <row r="33" spans="1:55" ht="13.5">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="AD33" s="32"/>
@@ -15073,9 +15469,9 @@
       <c r="BC33" s="33"/>
     </row>
     <row r="34" spans="1:55" ht="13.5">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="100"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="AD34" s="32"/>
@@ -15083,9 +15479,9 @@
       <c r="BC34" s="33"/>
     </row>
     <row r="35" spans="1:55" ht="13.5">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="AD35" s="32"/>
@@ -15093,9 +15489,9 @@
       <c r="BC35" s="33"/>
     </row>
     <row r="36" spans="1:55" ht="13.5">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="AD36" s="32"/>
@@ -15103,9 +15499,9 @@
       <c r="BC36" s="33"/>
     </row>
     <row r="37" spans="1:55" ht="13.5">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="AD37" s="32"/>
@@ -15113,9 +15509,9 @@
       <c r="BC37" s="33"/>
     </row>
     <row r="38" spans="1:55" ht="13.5">
-      <c r="A38" s="98"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="100"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="AD38" s="32"/>
@@ -15123,9 +15519,9 @@
       <c r="BC38" s="33"/>
     </row>
     <row r="39" spans="1:55" ht="13.5">
-      <c r="A39" s="98"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="AD39" s="32"/>
@@ -15133,9 +15529,9 @@
       <c r="BC39" s="33"/>
     </row>
     <row r="40" spans="1:55" ht="13.5">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="34"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
@@ -15252,138 +15648,138 @@
       <c r="C42" s="38"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="80" t="s">
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="80" t="s">
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="82"/>
-      <c r="AF45" s="80" t="s">
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="100"/>
+      <c r="AF45" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="82"/>
-      <c r="AJ45" s="83" t="s">
+      <c r="AG45" s="99"/>
+      <c r="AH45" s="99"/>
+      <c r="AI45" s="100"/>
+      <c r="AJ45" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="AK45" s="84"/>
-      <c r="AL45" s="84"/>
-      <c r="AM45" s="84"/>
-      <c r="AN45" s="84"/>
-      <c r="AO45" s="84"/>
-      <c r="AP45" s="84"/>
-      <c r="AQ45" s="85"/>
-      <c r="AR45" s="80" t="s">
+      <c r="AK45" s="96"/>
+      <c r="AL45" s="96"/>
+      <c r="AM45" s="96"/>
+      <c r="AN45" s="96"/>
+      <c r="AO45" s="96"/>
+      <c r="AP45" s="96"/>
+      <c r="AQ45" s="97"/>
+      <c r="AR45" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="AS45" s="81"/>
-      <c r="AT45" s="81"/>
-      <c r="AU45" s="82"/>
-      <c r="AV45" s="86">
+      <c r="AS45" s="99"/>
+      <c r="AT45" s="99"/>
+      <c r="AU45" s="100"/>
+      <c r="AV45" s="101">
         <v>45814</v>
       </c>
-      <c r="AW45" s="87"/>
-      <c r="AX45" s="87"/>
-      <c r="AY45" s="87"/>
-      <c r="AZ45" s="87"/>
-      <c r="BA45" s="87"/>
-      <c r="BB45" s="87"/>
-      <c r="BC45" s="88"/>
+      <c r="AW45" s="102"/>
+      <c r="AX45" s="102"/>
+      <c r="AY45" s="102"/>
+      <c r="AZ45" s="102"/>
+      <c r="BA45" s="102"/>
+      <c r="BB45" s="102"/>
+      <c r="BC45" s="103"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="83" t="s">
+      <c r="A46" s="104"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="84"/>
-      <c r="AC46" s="84"/>
-      <c r="AD46" s="84"/>
-      <c r="AE46" s="85"/>
-      <c r="AF46" s="77" t="s">
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="96"/>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="Z46" s="96"/>
+      <c r="AA46" s="96"/>
+      <c r="AB46" s="96"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="96"/>
+      <c r="AE46" s="97"/>
+      <c r="AF46" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AG46" s="78"/>
-      <c r="AH46" s="78"/>
-      <c r="AI46" s="79"/>
-      <c r="AJ46" s="83"/>
-      <c r="AK46" s="84"/>
-      <c r="AL46" s="84"/>
-      <c r="AM46" s="84"/>
-      <c r="AN46" s="84"/>
-      <c r="AO46" s="84"/>
-      <c r="AP46" s="84"/>
-      <c r="AQ46" s="85"/>
-      <c r="AR46" s="77" t="s">
+      <c r="AG46" s="105"/>
+      <c r="AH46" s="105"/>
+      <c r="AI46" s="106"/>
+      <c r="AJ46" s="95"/>
+      <c r="AK46" s="96"/>
+      <c r="AL46" s="96"/>
+      <c r="AM46" s="96"/>
+      <c r="AN46" s="96"/>
+      <c r="AO46" s="96"/>
+      <c r="AP46" s="96"/>
+      <c r="AQ46" s="97"/>
+      <c r="AR46" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="AS46" s="78"/>
-      <c r="AT46" s="78"/>
-      <c r="AU46" s="79"/>
-      <c r="AV46" s="86"/>
-      <c r="AW46" s="87"/>
-      <c r="AX46" s="87"/>
-      <c r="AY46" s="87"/>
-      <c r="AZ46" s="87"/>
-      <c r="BA46" s="87"/>
-      <c r="BB46" s="87"/>
-      <c r="BC46" s="88"/>
+      <c r="AS46" s="105"/>
+      <c r="AT46" s="105"/>
+      <c r="AU46" s="106"/>
+      <c r="AV46" s="101"/>
+      <c r="AW46" s="102"/>
+      <c r="AX46" s="102"/>
+      <c r="AY46" s="102"/>
+      <c r="AZ46" s="102"/>
+      <c r="BA46" s="102"/>
+      <c r="BB46" s="102"/>
+      <c r="BC46" s="103"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1">
       <c r="A47" s="27"/>
@@ -15443,129 +15839,129 @@
       <c r="BC47" s="28"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="89" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="89" t="s">
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="R48" s="90"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90"/>
-      <c r="V48" s="90"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="90"/>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="90"/>
-      <c r="AA48" s="90"/>
-      <c r="AB48" s="90"/>
-      <c r="AC48" s="90"/>
-      <c r="AD48" s="89"/>
-      <c r="AE48" s="90"/>
-      <c r="AF48" s="90"/>
-      <c r="AG48" s="90"/>
-      <c r="AH48" s="90"/>
-      <c r="AI48" s="90"/>
-      <c r="AJ48" s="90"/>
-      <c r="AK48" s="90"/>
-      <c r="AL48" s="90"/>
-      <c r="AM48" s="90"/>
-      <c r="AN48" s="90"/>
-      <c r="AO48" s="90"/>
-      <c r="AP48" s="91"/>
-      <c r="AQ48" s="90"/>
-      <c r="AR48" s="90"/>
-      <c r="AS48" s="90"/>
-      <c r="AT48" s="90"/>
-      <c r="AU48" s="90"/>
-      <c r="AV48" s="90"/>
-      <c r="AW48" s="90"/>
-      <c r="AX48" s="90"/>
-      <c r="AY48" s="90"/>
-      <c r="AZ48" s="90"/>
-      <c r="BA48" s="90"/>
-      <c r="BB48" s="90"/>
-      <c r="BC48" s="91"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="87"/>
+      <c r="AF48" s="87"/>
+      <c r="AG48" s="87"/>
+      <c r="AH48" s="87"/>
+      <c r="AI48" s="87"/>
+      <c r="AJ48" s="87"/>
+      <c r="AK48" s="87"/>
+      <c r="AL48" s="87"/>
+      <c r="AM48" s="87"/>
+      <c r="AN48" s="87"/>
+      <c r="AO48" s="87"/>
+      <c r="AP48" s="90"/>
+      <c r="AQ48" s="87"/>
+      <c r="AR48" s="87"/>
+      <c r="AS48" s="87"/>
+      <c r="AT48" s="87"/>
+      <c r="AU48" s="87"/>
+      <c r="AV48" s="87"/>
+      <c r="AW48" s="87"/>
+      <c r="AX48" s="87"/>
+      <c r="AY48" s="87"/>
+      <c r="AZ48" s="87"/>
+      <c r="BA48" s="87"/>
+      <c r="BB48" s="87"/>
+      <c r="BC48" s="90"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="93"/>
-      <c r="S49" s="93"/>
-      <c r="T49" s="93"/>
-      <c r="U49" s="93"/>
-      <c r="V49" s="93"/>
-      <c r="W49" s="93"/>
-      <c r="X49" s="93"/>
-      <c r="Y49" s="93"/>
-      <c r="Z49" s="93"/>
-      <c r="AA49" s="93"/>
-      <c r="AB49" s="93"/>
-      <c r="AC49" s="93"/>
-      <c r="AD49" s="92"/>
-      <c r="AE49" s="93"/>
-      <c r="AF49" s="93"/>
-      <c r="AG49" s="93"/>
-      <c r="AH49" s="93"/>
-      <c r="AI49" s="93"/>
-      <c r="AJ49" s="93"/>
-      <c r="AK49" s="93"/>
-      <c r="AL49" s="93"/>
-      <c r="AM49" s="93"/>
-      <c r="AN49" s="93"/>
-      <c r="AO49" s="93"/>
-      <c r="AP49" s="94"/>
-      <c r="AQ49" s="93"/>
-      <c r="AR49" s="93"/>
-      <c r="AS49" s="93"/>
-      <c r="AT49" s="93"/>
-      <c r="AU49" s="93"/>
-      <c r="AV49" s="93"/>
-      <c r="AW49" s="93"/>
-      <c r="AX49" s="93"/>
-      <c r="AY49" s="93"/>
-      <c r="AZ49" s="93"/>
-      <c r="BA49" s="93"/>
-      <c r="BB49" s="93"/>
-      <c r="BC49" s="94"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="89"/>
+      <c r="AB49" s="89"/>
+      <c r="AC49" s="89"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="89"/>
+      <c r="AF49" s="89"/>
+      <c r="AG49" s="89"/>
+      <c r="AH49" s="89"/>
+      <c r="AI49" s="89"/>
+      <c r="AJ49" s="89"/>
+      <c r="AK49" s="89"/>
+      <c r="AL49" s="89"/>
+      <c r="AM49" s="89"/>
+      <c r="AN49" s="89"/>
+      <c r="AO49" s="89"/>
+      <c r="AP49" s="91"/>
+      <c r="AQ49" s="89"/>
+      <c r="AR49" s="89"/>
+      <c r="AS49" s="89"/>
+      <c r="AT49" s="89"/>
+      <c r="AU49" s="89"/>
+      <c r="AV49" s="89"/>
+      <c r="AW49" s="89"/>
+      <c r="AX49" s="89"/>
+      <c r="AY49" s="89"/>
+      <c r="AZ49" s="89"/>
+      <c r="BA49" s="89"/>
+      <c r="BB49" s="89"/>
+      <c r="BC49" s="91"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A50" s="104"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="106"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
@@ -15620,9 +16016,9 @@
       <c r="BC50" s="31"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A51" s="95"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="97"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="AD51" s="32"/>
@@ -15630,9 +16026,9 @@
       <c r="BC51" s="33"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="AD52" s="32"/>
@@ -15640,9 +16036,9 @@
       <c r="BC52" s="33"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="AD53" s="32"/>
@@ -15650,9 +16046,9 @@
       <c r="BC53" s="33"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A54" s="95"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="AD54" s="32"/>
@@ -15660,9 +16056,9 @@
       <c r="BC54" s="33"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A55" s="95"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
+      <c r="A55" s="77"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="AD55" s="32"/>
@@ -15670,9 +16066,9 @@
       <c r="BC55" s="33"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A56" s="95"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="97"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="AD56" s="32"/>
@@ -15680,9 +16076,9 @@
       <c r="BC56" s="33"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A57" s="95"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="97"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="AD57" s="32"/>
@@ -15690,9 +16086,9 @@
       <c r="BC57" s="33"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A58" s="95"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="97"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="AD58" s="32"/>
@@ -15700,9 +16096,9 @@
       <c r="BC58" s="33"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A59" s="95"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="97"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="AD59" s="32"/>
@@ -15710,9 +16106,9 @@
       <c r="BC59" s="33"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A60" s="95"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="AD60" s="32"/>
@@ -15720,9 +16116,9 @@
       <c r="BC60" s="33"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A61" s="95"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="97"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="AD61" s="32"/>
@@ -15730,9 +16126,9 @@
       <c r="BC61" s="33"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A62" s="95"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="97"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="AD62" s="32"/>
@@ -15740,46 +16136,46 @@
       <c r="BC62" s="33"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A63" s="95"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="89" t="s">
+      <c r="A63" s="77"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="87"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="87"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="87"/>
+      <c r="P63" s="87"/>
       <c r="Q63" s="32"/>
       <c r="AD63" s="32"/>
       <c r="AP63" s="33"/>
       <c r="BC63" s="33"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A64" s="95"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
       <c r="Q64" s="32"/>
       <c r="AD64" s="32"/>
       <c r="AP64" s="33"/>
@@ -15792,9 +16188,9 @@
       <c r="BC64" s="33"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A65" s="95"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="97"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="AD65" s="32"/>
@@ -15808,9 +16204,9 @@
       <c r="BC65" s="33"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A66" s="95"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="97"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="AD66" s="32"/>
@@ -15818,9 +16214,9 @@
       <c r="BC66" s="33"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A67" s="95"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="97"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="AD67" s="32"/>
@@ -15828,9 +16224,9 @@
       <c r="BC67" s="33"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A68" s="95"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="97"/>
+      <c r="A68" s="77"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="AD68" s="32"/>
@@ -15838,9 +16234,9 @@
       <c r="BC68" s="33"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A69" s="95"/>
-      <c r="B69" s="96"/>
-      <c r="C69" s="97"/>
+      <c r="A69" s="77"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="32"/>
       <c r="Q69" s="32"/>
       <c r="AD69" s="32"/>
@@ -15848,9 +16244,9 @@
       <c r="BC69" s="33"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A70" s="95"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="97"/>
+      <c r="A70" s="77"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="32"/>
       <c r="Q70" s="32"/>
       <c r="AD70" s="32"/>
@@ -15858,9 +16254,9 @@
       <c r="BC70" s="33"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A71" s="95"/>
-      <c r="B71" s="96"/>
-      <c r="C71" s="97"/>
+      <c r="A71" s="77"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="32"/>
       <c r="Q71" s="32"/>
       <c r="AD71" s="32"/>
@@ -15874,9 +16270,9 @@
       <c r="BC71" s="33"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A72" s="95"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="97"/>
+      <c r="A72" s="77"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="32"/>
       <c r="Q72" s="32"/>
       <c r="AD72" s="32"/>
@@ -15884,9 +16280,9 @@
       <c r="BC72" s="33"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A73" s="98"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="AD73" s="32"/>
@@ -15894,9 +16290,9 @@
       <c r="BC73" s="33"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A74" s="98"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="100"/>
+      <c r="A74" s="80"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="32"/>
       <c r="Q74" s="32"/>
       <c r="AD74" s="32"/>
@@ -15904,9 +16300,9 @@
       <c r="BC74" s="33"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A75" s="98"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="100"/>
+      <c r="A75" s="80"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="AD75" s="32"/>
@@ -15914,9 +16310,9 @@
       <c r="BC75" s="33"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A76" s="98"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="100"/>
+      <c r="A76" s="80"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="AD76" s="32"/>
@@ -15924,9 +16320,9 @@
       <c r="BC76" s="33"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A77" s="98"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="100"/>
+      <c r="A77" s="80"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="AD77" s="32"/>
@@ -15934,9 +16330,9 @@
       <c r="BC77" s="33"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A78" s="98"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="100"/>
+      <c r="A78" s="80"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="82"/>
       <c r="D78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="AD78" s="32"/>
@@ -15944,9 +16340,9 @@
       <c r="BC78" s="33"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A79" s="98"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="100"/>
+      <c r="A79" s="80"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="82"/>
       <c r="D79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="AD79" s="32"/>
@@ -15954,9 +16350,9 @@
       <c r="BC79" s="33"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A80" s="98"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="100"/>
+      <c r="A80" s="80"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="82"/>
       <c r="D80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="AD80" s="32"/>
@@ -15964,9 +16360,9 @@
       <c r="BC80" s="33"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A81" s="98"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="100"/>
+      <c r="A81" s="80"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="82"/>
       <c r="D81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="AD81" s="32"/>
@@ -15980,9 +16376,9 @@
       <c r="BC81" s="33"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A82" s="98"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="100"/>
+      <c r="A82" s="80"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="82"/>
       <c r="D82" s="32"/>
       <c r="Q82" s="32"/>
       <c r="AD82" s="32"/>
@@ -15990,9 +16386,9 @@
       <c r="BC82" s="33"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A83" s="98"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="100"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="82"/>
       <c r="D83" s="32"/>
       <c r="Q83" s="32"/>
       <c r="AD83" s="32"/>
@@ -16000,9 +16396,9 @@
       <c r="BC83" s="33"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A84" s="98"/>
-      <c r="B84" s="99"/>
-      <c r="C84" s="100"/>
+      <c r="A84" s="80"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="82"/>
       <c r="D84" s="32"/>
       <c r="Q84" s="32"/>
       <c r="AD84" s="32"/>
@@ -16010,9 +16406,9 @@
       <c r="BC84" s="33"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A85" s="98"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="100"/>
+      <c r="A85" s="80"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="82"/>
       <c r="D85" s="32"/>
       <c r="Q85" s="32"/>
       <c r="AD85" s="32"/>
@@ -16020,9 +16416,9 @@
       <c r="BC85" s="33"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A86" s="98"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="100"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="82"/>
       <c r="D86" s="32"/>
       <c r="Q86" s="32"/>
       <c r="AD86" s="32"/>
@@ -16030,9 +16426,9 @@
       <c r="BC86" s="33"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A87" s="98"/>
-      <c r="B87" s="99"/>
-      <c r="C87" s="100"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="82"/>
       <c r="D87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="AD87" s="32"/>
@@ -16040,9 +16436,9 @@
       <c r="BC87" s="33"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A88" s="98"/>
-      <c r="B88" s="99"/>
-      <c r="C88" s="100"/>
+      <c r="A88" s="80"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="82"/>
       <c r="D88" s="32"/>
       <c r="Q88" s="32"/>
       <c r="AD88" s="32"/>
@@ -16050,9 +16446,9 @@
       <c r="BC88" s="33"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A89" s="98"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="100"/>
+      <c r="A89" s="80"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="82"/>
       <c r="D89" s="32"/>
       <c r="Q89" s="32"/>
       <c r="AD89" s="32"/>
@@ -16060,9 +16456,9 @@
       <c r="BC89" s="33"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A90" s="98"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="100"/>
+      <c r="A90" s="80"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="82"/>
       <c r="D90" s="32"/>
       <c r="Q90" s="32"/>
       <c r="AD90" s="32"/>
@@ -16070,9 +16466,9 @@
       <c r="BC90" s="33"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A91" s="98"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="100"/>
+      <c r="A91" s="80"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="AD91" s="32"/>
@@ -16086,9 +16482,9 @@
       <c r="BC91" s="33"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A92" s="98"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="100"/>
+      <c r="A92" s="80"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="82"/>
       <c r="D92" s="32"/>
       <c r="Q92" s="32"/>
       <c r="AD92" s="32"/>
@@ -16102,9 +16498,9 @@
       <c r="BC92" s="33"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A93" s="98"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="100"/>
+      <c r="A93" s="80"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="82"/>
       <c r="D93" s="32"/>
       <c r="Q93" s="32"/>
       <c r="AD93" s="32"/>
@@ -16118,9 +16514,9 @@
       <c r="BC93" s="33"/>
     </row>
     <row r="94" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A94" s="98"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="100"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="82"/>
       <c r="D94" s="32"/>
       <c r="Q94" s="32"/>
       <c r="AD94" s="32"/>
@@ -16134,9 +16530,9 @@
       <c r="BC94" s="33"/>
     </row>
     <row r="95" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A95" s="98"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="100"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="82"/>
       <c r="D95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="AD95" s="32"/>
@@ -16144,9 +16540,9 @@
       <c r="BC95" s="33"/>
     </row>
     <row r="96" spans="1:55" ht="14.25" customHeight="1">
-      <c r="A96" s="101"/>
-      <c r="B96" s="102"/>
-      <c r="C96" s="103"/>
+      <c r="A96" s="83"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="85"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
@@ -16202,12 +16598,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A57:C72"/>
-    <mergeCell ref="A73:C96"/>
-    <mergeCell ref="D63:P64"/>
-    <mergeCell ref="A48:C49"/>
-    <mergeCell ref="D48:P49"/>
-    <mergeCell ref="A50:C56"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="AQ48:BC49"/>
+    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:BC2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="A13:C28"/>
+    <mergeCell ref="A29:C40"/>
+    <mergeCell ref="A6:C12"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="O45:AE45"/>
+    <mergeCell ref="Q48:AC49"/>
+    <mergeCell ref="AD48:AP49"/>
     <mergeCell ref="AJ45:AQ45"/>
     <mergeCell ref="AR45:AU45"/>
     <mergeCell ref="AV45:BC45"/>
@@ -16218,33 +16635,12 @@
     <mergeCell ref="AR46:AU46"/>
     <mergeCell ref="AV46:BC46"/>
     <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="O45:AE45"/>
-    <mergeCell ref="Q48:AC49"/>
-    <mergeCell ref="AD48:AP49"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="A13:C28"/>
-    <mergeCell ref="A29:C40"/>
-    <mergeCell ref="A6:C12"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="AQ48:BC49"/>
-    <mergeCell ref="AV1:BC1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:BC2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A57:C72"/>
+    <mergeCell ref="A73:C96"/>
+    <mergeCell ref="D63:P64"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:P49"/>
+    <mergeCell ref="A50:C56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16419,8 +16815,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16567,7 +16963,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
